--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_21_32.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_21_32.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1222154.45606271</v>
+        <v>1217257.219474763</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8186089.907737301</v>
+        <v>8186089.907737305</v>
       </c>
     </row>
     <row r="9">
@@ -1384,10 +1384,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>402.5056876845219</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>285.9311321812619</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>31.96561383918966</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>210.6370840092685</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>154.1895135366684</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y11" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1454,7 +1454,7 @@
         <v>132.6551205385437</v>
       </c>
       <c r="D12" t="n">
-        <v>115.7281862028015</v>
+        <v>26.81299587523833</v>
       </c>
       <c r="E12" t="n">
         <v>119.2878878475953</v>
@@ -1463,7 +1463,7 @@
         <v>107.8702810193205</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>104.7777180703237</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1499,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>15.86252774276089</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
         <v>153.1433946664671</v>
@@ -1530,22 +1530,22 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C13" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>164.6200590018132</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>29.11948557459192</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,22 +1575,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>41.35255397088748</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>233.0607131231338</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>279.9179208068699</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W13" t="n">
-        <v>233.9827034328849</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X13" t="n">
         <v>235.9604235189134</v>
@@ -1606,25 +1606,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>285.9311321812619</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>85.26980621371686</v>
       </c>
       <c r="T14" t="n">
-        <v>111.0370328509743</v>
+        <v>210.6370840092685</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>254.319061736559</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -1672,10 +1672,10 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>84.18129351543094</v>
       </c>
     </row>
     <row r="15">
@@ -1694,13 +1694,13 @@
         <v>115.7281862028015</v>
       </c>
       <c r="E15" t="n">
-        <v>43.48618424254082</v>
+        <v>119.2878878475953</v>
       </c>
       <c r="F15" t="n">
         <v>107.8702810193205</v>
       </c>
       <c r="G15" t="n">
-        <v>104.7777180703237</v>
+        <v>66.47021313332924</v>
       </c>
       <c r="H15" t="n">
         <v>59.00565898536429</v>
@@ -1742,7 +1742,7 @@
         <v>153.1433946664671</v>
       </c>
       <c r="U15" t="n">
-        <v>195.3021387078687</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
         <v>211.5744117368965</v>
@@ -1754,7 +1754,7 @@
         <v>174.5627220424961</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>157.8079400398083</v>
       </c>
     </row>
     <row r="16">
@@ -1764,16 +1764,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F16" t="n">
         <v>162.9848146305146</v>
@@ -1818,16 +1818,16 @@
         <v>167.8355178356165</v>
       </c>
       <c r="T16" t="n">
-        <v>233.0607131231338</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>191.6404316557045</v>
+        <v>186.4259197659455</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X16" t="n">
         <v>235.9604235189134</v>
@@ -1846,19 +1846,19 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>297.8092250353213</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>402.5056876845219</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1897,22 +1897,22 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>210.6370840092685</v>
       </c>
       <c r="U17" t="n">
-        <v>254.319061736559</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>305.9894196679531</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1928,19 +1928,19 @@
         <v>132.6551205385437</v>
       </c>
       <c r="D18" t="n">
-        <v>115.7281862028015</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
         <v>119.2878878475953</v>
       </c>
       <c r="F18" t="n">
-        <v>107.8702810193205</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>15.86252774276011</v>
+        <v>104.7777180703237</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>59.00565898536429</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1973,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>85.6887943319354</v>
       </c>
       <c r="T18" t="n">
         <v>153.1433946664671</v>
@@ -1985,7 +1985,7 @@
         <v>211.5744117368965</v>
       </c>
       <c r="W18" t="n">
-        <v>211.1008365810345</v>
+        <v>201.0896601582935</v>
       </c>
       <c r="X18" t="n">
         <v>174.5627220424961</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C19" t="n">
         <v>169.3824387139007</v>
@@ -2019,10 +2019,10 @@
         <v>164.6200590018132</v>
       </c>
       <c r="H19" t="n">
-        <v>139.5954175304433</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>61.11098809510885</v>
+        <v>86.37808034979749</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>41.35255397088749</v>
       </c>
       <c r="S19" t="n">
-        <v>167.8355178356165</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -2061,16 +2061,16 @@
         <v>279.9179208068699</v>
       </c>
       <c r="V19" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>103.6471257951305</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="20">
@@ -2080,16 +2080,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>131.7021467963113</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -2098,7 +2098,7 @@
         <v>402.5056876845219</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>285.9311321812619</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>85.26980621371689</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>254.319061736559</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -2146,10 +2146,10 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>396.636963852737</v>
+        <v>295.5729482904915</v>
       </c>
       <c r="Y20" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2168,16 +2168,16 @@
         <v>115.7281862028015</v>
       </c>
       <c r="E21" t="n">
-        <v>49.46162125842037</v>
+        <v>119.2878878475953</v>
       </c>
       <c r="F21" t="n">
-        <v>107.8702810193205</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>104.7777180703237</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>59.00565898536429</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2219,7 +2219,7 @@
         <v>195.3021387078687</v>
       </c>
       <c r="V21" t="n">
-        <v>211.5744117368965</v>
+        <v>85.83504911135414</v>
       </c>
       <c r="W21" t="n">
         <v>211.1008365810345</v>
@@ -2241,25 +2241,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E22" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>139.5954175304433</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>86.37808034979749</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,19 +2286,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>41.35255397088749</v>
       </c>
       <c r="S22" t="n">
-        <v>78.35217027960138</v>
+        <v>167.8355178356165</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>233.0607131231338</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>279.9179208068699</v>
       </c>
       <c r="V22" t="n">
-        <v>271.1468876098733</v>
+        <v>115.5161562226282</v>
       </c>
       <c r="W22" t="n">
         <v>276.2789678462144</v>
@@ -2307,7 +2307,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y22" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2317,19 +2317,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>387.894780269513</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -2338,7 +2338,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>3.166568202456233</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2371,10 +2371,10 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>210.6370840092685</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>160.7259979629251</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -2386,7 +2386,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="24">
@@ -2447,7 +2447,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>85.6887943319354</v>
+        <v>85.68879433193547</v>
       </c>
       <c r="T24" t="n">
         <v>153.1433946664671</v>
@@ -2478,7 +2478,7 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2490,13 +2490,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>164.6200590018132</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>86.37808034979749</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2532,7 +2532,7 @@
         <v>233.0607131231338</v>
       </c>
       <c r="U25" t="n">
-        <v>279.9179208068699</v>
+        <v>164.0765395059199</v>
       </c>
       <c r="V25" t="n">
         <v>271.1468876098733</v>
@@ -2544,7 +2544,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y25" t="n">
-        <v>25.03125968646333</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="26">
@@ -2557,7 +2557,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>254.8741174260482</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -2566,13 +2566,13 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>402.5056876845219</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>285.9311321812619</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2608,22 +2608,22 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>193.2598841959328</v>
+        <v>210.6370840092685</v>
       </c>
       <c r="U26" t="n">
-        <v>254.319061736559</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y26" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2721,16 +2721,16 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E28" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>164.6200590018132</v>
       </c>
       <c r="H28" t="n">
-        <v>139.5954175304433</v>
+        <v>6.78735679233577</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2763,22 +2763,22 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>167.8355178356165</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>233.0607131231338</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>279.9179208068699</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X28" t="n">
-        <v>204.4136760783549</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>222.4883416251229</v>
@@ -2794,25 +2794,25 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>45.60847596175428</v>
       </c>
       <c r="E29" t="n">
-        <v>256.5966488639071</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>416.8201079258493</v>
       </c>
       <c r="G29" t="n">
-        <v>402.5056876845219</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>3.166568202456233</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2845,7 +2845,7 @@
         <v>85.26980621371689</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>210.6370840092685</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -2924,7 +2924,7 @@
         <v>85.6887943319354</v>
       </c>
       <c r="T30" t="n">
-        <v>153.1433946664675</v>
+        <v>153.1433946664671</v>
       </c>
       <c r="U30" t="n">
         <v>195.3021387078687</v>
@@ -2958,7 +2958,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2967,10 +2967,10 @@
         <v>164.6200590018132</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>139.5954175304433</v>
       </c>
       <c r="I31" t="n">
-        <v>40.80903447499472</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3006,19 +3006,19 @@
         <v>233.0607131231338</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>279.9179208068699</v>
       </c>
       <c r="V31" t="n">
-        <v>271.1468876098733</v>
+        <v>191.5896419112274</v>
       </c>
       <c r="W31" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X31" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3028,25 +3028,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>400.4192906078701</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>8.058825644422393</v>
       </c>
       <c r="F32" t="n">
-        <v>11.57700438583448</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>285.9311321812619</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,25 +3079,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>85.26980621371689</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>210.6370840092685</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>254.319061736559</v>
       </c>
       <c r="V32" t="n">
-        <v>346.3391791168842</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>396.9273063213909</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="33">
@@ -3122,10 +3122,10 @@
         <v>107.8702810193205</v>
       </c>
       <c r="G33" t="n">
-        <v>104.7777180703238</v>
+        <v>104.7777180703237</v>
       </c>
       <c r="H33" t="n">
-        <v>59.00565898536436</v>
+        <v>59.00565898536429</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3158,7 +3158,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>85.68879433193524</v>
+        <v>85.6887943319354</v>
       </c>
       <c r="T33" t="n">
         <v>153.1433946664671</v>
@@ -3167,13 +3167,13 @@
         <v>195.3021387078687</v>
       </c>
       <c r="V33" t="n">
-        <v>211.5744117368966</v>
+        <v>211.5744117368965</v>
       </c>
       <c r="W33" t="n">
-        <v>211.1008365810346</v>
+        <v>211.1008365810345</v>
       </c>
       <c r="X33" t="n">
-        <v>174.5627220424962</v>
+        <v>174.5627220424961</v>
       </c>
       <c r="Y33" t="n">
         <v>157.8079400398083</v>
@@ -3186,22 +3186,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>92.81188613668431</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C34" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>157.8996982303191</v>
+        <v>94.89361138383856</v>
       </c>
       <c r="E34" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>164.6200590018132</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>167.8355178356165</v>
       </c>
       <c r="T34" t="n">
         <v>233.0607131231338</v>
@@ -3252,10 +3252,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="35">
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -3274,19 +3274,19 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F35" t="n">
-        <v>416.8201079258494</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G35" t="n">
-        <v>402.5056876845219</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>285.9311321812619</v>
+        <v>44.89507611348377</v>
       </c>
       <c r="I35" t="n">
-        <v>3.166568202456298</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3319,10 +3319,10 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>210.6370840092685</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>254.319061736559</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -3331,10 +3331,10 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>219.252985572889</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="36">
@@ -3353,16 +3353,16 @@
         <v>115.7281862028015</v>
       </c>
       <c r="E36" t="n">
-        <v>119.2878878475953</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>38.04401443014532</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>104.7777180703237</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>59.00565898536429</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3401,7 +3401,7 @@
         <v>153.1433946664671</v>
       </c>
       <c r="U36" t="n">
-        <v>195.3021387078687</v>
+        <v>188.8506639299216</v>
       </c>
       <c r="V36" t="n">
         <v>211.5744117368965</v>
@@ -3423,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D37" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G37" t="n">
-        <v>164.6200590018132</v>
+        <v>105.0632831854035</v>
       </c>
       <c r="H37" t="n">
-        <v>139.5954175304433</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>86.37808034979749</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.35255397088749</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>167.8355178356165</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>233.0607131231338</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>279.9179208068699</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y37" t="n">
-        <v>65.56173973792946</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3508,13 +3508,13 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>215.1751401124613</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>410.1968133282723</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>416.8201079258494</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>402.5056876845219</v>
@@ -3523,7 +3523,7 @@
         <v>285.9311321812619</v>
       </c>
       <c r="I38" t="n">
-        <v>3.166568202456304</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,22 +3553,22 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>14.47990612356047</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>254.319061736559</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3593,13 +3593,13 @@
         <v>119.2878878475953</v>
       </c>
       <c r="F39" t="n">
-        <v>38.04401443014532</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>59.00565898536429</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3638,7 +3638,7 @@
         <v>153.1433946664671</v>
       </c>
       <c r="U39" t="n">
-        <v>195.3021387078687</v>
+        <v>66.47021313332944</v>
       </c>
       <c r="V39" t="n">
         <v>211.5744117368965</v>
@@ -3666,22 +3666,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>164.6200590018132</v>
       </c>
       <c r="H40" t="n">
-        <v>139.5954175304433</v>
+        <v>90.54349700909083</v>
       </c>
       <c r="I40" t="n">
-        <v>86.37808034979749</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3720,16 +3720,16 @@
         <v>279.9179208068699</v>
       </c>
       <c r="V40" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>276.2789678462187</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X40" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>2.268966843069522</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -3754,10 +3754,10 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G41" t="n">
-        <v>224.2104321467025</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>285.9311321812619</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3793,7 +3793,7 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>103.7322539914666</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -3805,10 +3805,10 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="42">
@@ -3827,16 +3827,16 @@
         <v>115.7281862028015</v>
       </c>
       <c r="E42" t="n">
-        <v>119.2878878475953</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>107.8702810193205</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>104.7777180703237</v>
+        <v>98.32624329237653</v>
       </c>
       <c r="H42" t="n">
-        <v>59.00565898536822</v>
+        <v>59.00565898536429</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3869,10 +3869,10 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>85.6887943319354</v>
       </c>
       <c r="T42" t="n">
-        <v>5.222545353535551</v>
+        <v>153.1433946664671</v>
       </c>
       <c r="U42" t="n">
         <v>195.3021387078687</v>
@@ -3897,22 +3897,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>40.07513227995572</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>164.6200590018132</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>41.35255397088749</v>
       </c>
       <c r="S43" t="n">
-        <v>167.8355178356165</v>
+        <v>8.969581931995307</v>
       </c>
       <c r="T43" t="n">
         <v>233.0607131231338</v>
@@ -3957,10 +3957,10 @@
         <v>279.9179208068699</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X43" t="n">
         <v>235.9604235189134</v>
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -3985,19 +3985,19 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>402.5056876845219</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>3.166568202456233</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,25 +4027,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>85.26980621371689</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>210.6370840092685</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>254.319061736559</v>
+        <v>94.98730442587895</v>
       </c>
       <c r="V44" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>60.67065664947444</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4064,16 +4064,16 @@
         <v>115.7281862028015</v>
       </c>
       <c r="E45" t="n">
-        <v>119.2878878475953</v>
+        <v>49.46162125842015</v>
       </c>
       <c r="F45" t="n">
         <v>107.8702810193205</v>
       </c>
       <c r="G45" t="n">
-        <v>104.7777180703237</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>59.00565898536429</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4106,13 +4106,13 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>85.6887943319354</v>
       </c>
       <c r="T45" t="n">
-        <v>5.222545353535551</v>
+        <v>153.1433946664671</v>
       </c>
       <c r="U45" t="n">
-        <v>195.3021387078722</v>
+        <v>195.3021387078687</v>
       </c>
       <c r="V45" t="n">
         <v>211.5744117368965</v>
@@ -4134,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F46" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>164.6200590018132</v>
       </c>
       <c r="H46" t="n">
-        <v>139.5954175304433</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>59.20082181148122</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4188,19 +4188,19 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>233.0607131231338</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>279.9179208068699</v>
       </c>
       <c r="V46" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>125.9468427978456</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y46" t="n">
         <v>222.4883416251229</v>
@@ -5017,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>35.74099050576837</v>
+        <v>731.1317176429238</v>
       </c>
       <c r="C11" t="n">
-        <v>35.74099050576837</v>
+        <v>731.1317176429238</v>
       </c>
       <c r="D11" t="n">
-        <v>35.74099050576837</v>
+        <v>731.1317176429238</v>
       </c>
       <c r="E11" t="n">
-        <v>35.74099050576837</v>
+        <v>731.1317176429238</v>
       </c>
       <c r="F11" t="n">
-        <v>35.74099050576837</v>
+        <v>731.1317176429238</v>
       </c>
       <c r="G11" t="n">
-        <v>35.74099050576837</v>
+        <v>324.5603159413865</v>
       </c>
       <c r="H11" t="n">
         <v>35.74099050576837</v>
@@ -5044,49 +5044,49 @@
         <v>142.5703854689896</v>
       </c>
       <c r="K11" t="n">
-        <v>323.2290557446589</v>
+        <v>323.2290557446586</v>
       </c>
       <c r="L11" t="n">
-        <v>562.2973247064785</v>
+        <v>562.2973247064781</v>
       </c>
       <c r="M11" t="n">
-        <v>841.1329596152974</v>
+        <v>841.1329596152971</v>
       </c>
       <c r="N11" t="n">
         <v>1126.349039004049</v>
       </c>
       <c r="O11" t="n">
-        <v>1390.269714189818</v>
+        <v>1390.269714189817</v>
       </c>
       <c r="P11" t="n">
-        <v>1601.546999092374</v>
+        <v>1601.546999092373</v>
       </c>
       <c r="Q11" t="n">
         <v>1740.697478824117</v>
       </c>
       <c r="R11" t="n">
-        <v>1787.049525288419</v>
+        <v>1787.049525288418</v>
       </c>
       <c r="S11" t="n">
-        <v>1787.049525288419</v>
+        <v>1754.761026460954</v>
       </c>
       <c r="T11" t="n">
-        <v>1787.049525288419</v>
+        <v>1541.996295138461</v>
       </c>
       <c r="U11" t="n">
-        <v>1787.049525288419</v>
+        <v>1541.996295138461</v>
       </c>
       <c r="V11" t="n">
-        <v>1631.302541918046</v>
+        <v>1541.996295138461</v>
       </c>
       <c r="W11" t="n">
-        <v>1247.542241053215</v>
+        <v>1541.996295138461</v>
       </c>
       <c r="X11" t="n">
-        <v>846.8988432221677</v>
+        <v>1141.352897307413</v>
       </c>
       <c r="Y11" t="n">
-        <v>445.9621701702578</v>
+        <v>1141.352897307413</v>
       </c>
     </row>
     <row r="12">
@@ -5096,19 +5096,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>516.0859153625977</v>
+        <v>532.1086706583154</v>
       </c>
       <c r="C12" t="n">
-        <v>382.0908441115434</v>
+        <v>398.1135994072611</v>
       </c>
       <c r="D12" t="n">
-        <v>265.1936863309358</v>
+        <v>371.0297651898487</v>
       </c>
       <c r="E12" t="n">
-        <v>144.7008703232638</v>
+        <v>250.5369491821766</v>
       </c>
       <c r="F12" t="n">
-        <v>35.74099050576837</v>
+        <v>141.5770693646812</v>
       </c>
       <c r="G12" t="n">
         <v>35.74099050576837</v>
@@ -5117,55 +5117,55 @@
         <v>35.74099050576837</v>
       </c>
       <c r="I12" t="n">
-        <v>54.34778796170227</v>
+        <v>54.34778796170226</v>
       </c>
       <c r="J12" t="n">
-        <v>110.3534157295929</v>
+        <v>354.0218197042261</v>
       </c>
       <c r="K12" t="n">
-        <v>237.7286580436576</v>
+        <v>481.3970620182907</v>
       </c>
       <c r="L12" t="n">
-        <v>427.7610195839799</v>
+        <v>671.4294235586129</v>
       </c>
       <c r="M12" t="n">
-        <v>657.3593538638704</v>
+        <v>901.0277578385035</v>
       </c>
       <c r="N12" t="n">
-        <v>898.8699740518614</v>
+        <v>1142.538378026494</v>
       </c>
       <c r="O12" t="n">
-        <v>1110.805991538929</v>
+        <v>1354.474395513562</v>
       </c>
       <c r="P12" t="n">
-        <v>1553.100749047812</v>
+        <v>1516.74184232776</v>
       </c>
       <c r="Q12" t="n">
         <v>1687.264539063037</v>
       </c>
       <c r="R12" t="n">
-        <v>1787.049525288419</v>
+        <v>1787.049525288418</v>
       </c>
       <c r="S12" t="n">
-        <v>1771.026769992701</v>
+        <v>1787.049525288418</v>
       </c>
       <c r="T12" t="n">
-        <v>1616.336472349805</v>
+        <v>1632.359227645522</v>
       </c>
       <c r="U12" t="n">
-        <v>1419.061584766099</v>
+        <v>1435.084340061817</v>
       </c>
       <c r="V12" t="n">
-        <v>1205.350057759133</v>
+        <v>1221.37281305485</v>
       </c>
       <c r="W12" t="n">
-        <v>992.1168894954615</v>
+        <v>1008.139644791179</v>
       </c>
       <c r="X12" t="n">
-        <v>815.7909076343543</v>
+        <v>831.813662930072</v>
       </c>
       <c r="Y12" t="n">
-        <v>656.3889479981843</v>
+        <v>672.4117032939021</v>
       </c>
     </row>
     <row r="13">
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>858.1538365228505</v>
+        <v>65.15461229828546</v>
       </c>
       <c r="C13" t="n">
-        <v>687.060464084567</v>
+        <v>65.15461229828546</v>
       </c>
       <c r="D13" t="n">
-        <v>527.565819407477</v>
+        <v>65.15461229828546</v>
       </c>
       <c r="E13" t="n">
-        <v>366.6550042757965</v>
+        <v>65.15461229828546</v>
       </c>
       <c r="F13" t="n">
-        <v>202.0238783863878</v>
+        <v>65.15461229828546</v>
       </c>
       <c r="G13" t="n">
-        <v>35.74099050576837</v>
+        <v>65.15461229828546</v>
       </c>
       <c r="H13" t="n">
         <v>35.74099050576837</v>
@@ -5202,49 +5202,49 @@
         <v>116.86480644676</v>
       </c>
       <c r="K13" t="n">
-        <v>381.5865293505955</v>
+        <v>381.5865293505954</v>
       </c>
       <c r="L13" t="n">
-        <v>782.4625254678897</v>
+        <v>782.4625254678895</v>
       </c>
       <c r="M13" t="n">
-        <v>1220.369060868969</v>
+        <v>875.4027113546829</v>
       </c>
       <c r="N13" t="n">
-        <v>1630.411328070338</v>
+        <v>969.3152853445268</v>
       </c>
       <c r="O13" t="n">
-        <v>1708.927989328892</v>
+        <v>1362.906706021821</v>
       </c>
       <c r="P13" t="n">
-        <v>1768.392458898498</v>
+        <v>1683.268659064545</v>
       </c>
       <c r="Q13" t="n">
-        <v>1787.049525288419</v>
+        <v>1787.049525288418</v>
       </c>
       <c r="R13" t="n">
-        <v>1745.279268752169</v>
+        <v>1787.049525288418</v>
       </c>
       <c r="S13" t="n">
-        <v>1745.279268752169</v>
+        <v>1787.049525288418</v>
       </c>
       <c r="T13" t="n">
-        <v>1745.279268752169</v>
+        <v>1551.634663547879</v>
       </c>
       <c r="U13" t="n">
-        <v>1745.279268752169</v>
+        <v>1268.889288995485</v>
       </c>
       <c r="V13" t="n">
-        <v>1745.279268752169</v>
+        <v>995.0035439350074</v>
       </c>
       <c r="W13" t="n">
-        <v>1508.933103668447</v>
+        <v>715.9338794438818</v>
       </c>
       <c r="X13" t="n">
-        <v>1270.58924152813</v>
+        <v>477.5900173035652</v>
       </c>
       <c r="Y13" t="n">
-        <v>1045.853542916895</v>
+        <v>252.8543186923299</v>
       </c>
     </row>
     <row r="14">
@@ -5254,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1264.669726582541</v>
+        <v>745.590727987699</v>
       </c>
       <c r="C14" t="n">
-        <v>854.5451358958112</v>
+        <v>745.590727987699</v>
       </c>
       <c r="D14" t="n">
-        <v>450.0812059888717</v>
+        <v>745.590727987699</v>
       </c>
       <c r="E14" t="n">
-        <v>35.74099050576837</v>
+        <v>745.590727987699</v>
       </c>
       <c r="F14" t="n">
-        <v>35.74099050576837</v>
+        <v>324.5603159413865</v>
       </c>
       <c r="G14" t="n">
-        <v>35.74099050576837</v>
+        <v>324.5603159413865</v>
       </c>
       <c r="H14" t="n">
         <v>35.74099050576837</v>
@@ -5284,16 +5284,16 @@
         <v>323.2290557446588</v>
       </c>
       <c r="L14" t="n">
-        <v>562.2973247064788</v>
+        <v>562.2973247064784</v>
       </c>
       <c r="M14" t="n">
-        <v>841.1329596152973</v>
+        <v>841.1329596152972</v>
       </c>
       <c r="N14" t="n">
         <v>1126.349039004049</v>
       </c>
       <c r="O14" t="n">
-        <v>1390.269714189818</v>
+        <v>1390.269714189817</v>
       </c>
       <c r="P14" t="n">
         <v>1601.546999092373</v>
@@ -5302,28 +5302,28 @@
         <v>1740.697478824117</v>
       </c>
       <c r="R14" t="n">
-        <v>1787.049525288419</v>
+        <v>1787.049525288418</v>
       </c>
       <c r="S14" t="n">
-        <v>1787.049525288419</v>
+        <v>1700.918407900826</v>
       </c>
       <c r="T14" t="n">
-        <v>1674.89090624703</v>
+        <v>1488.153676578332</v>
       </c>
       <c r="U14" t="n">
-        <v>1674.89090624703</v>
+        <v>1231.265735430293</v>
       </c>
       <c r="V14" t="n">
-        <v>1674.89090624703</v>
+        <v>1231.265735430293</v>
       </c>
       <c r="W14" t="n">
-        <v>1674.89090624703</v>
+        <v>1231.265735430293</v>
       </c>
       <c r="X14" t="n">
-        <v>1674.89090624703</v>
+        <v>830.6223375992454</v>
       </c>
       <c r="Y14" t="n">
-        <v>1674.89090624703</v>
+        <v>745.590727987699</v>
       </c>
     </row>
     <row r="15">
@@ -5333,19 +5333,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>604.9562925854599</v>
+        <v>642.8292205329952</v>
       </c>
       <c r="C15" t="n">
-        <v>470.9612213344056</v>
+        <v>508.8341492819409</v>
       </c>
       <c r="D15" t="n">
-        <v>354.064063553798</v>
+        <v>391.9369915013334</v>
       </c>
       <c r="E15" t="n">
-        <v>310.1386249249689</v>
+        <v>271.4441754936613</v>
       </c>
       <c r="F15" t="n">
-        <v>201.1787451074734</v>
+        <v>162.4842956761659</v>
       </c>
       <c r="G15" t="n">
         <v>95.34266624856059</v>
@@ -5354,34 +5354,34 @@
         <v>35.74099050576837</v>
       </c>
       <c r="I15" t="n">
-        <v>35.74099050576837</v>
+        <v>54.34778796170227</v>
       </c>
       <c r="J15" t="n">
-        <v>91.74661827365898</v>
+        <v>354.0218197042261</v>
       </c>
       <c r="K15" t="n">
-        <v>534.0413757825426</v>
+        <v>651.6352588491864</v>
       </c>
       <c r="L15" t="n">
-        <v>841.6676203895091</v>
+        <v>841.6676203895087</v>
       </c>
       <c r="M15" t="n">
-        <v>1071.2659546694</v>
+        <v>1071.265954669399</v>
       </c>
       <c r="N15" t="n">
-        <v>1312.776574857391</v>
+        <v>1312.77657485739</v>
       </c>
       <c r="O15" t="n">
         <v>1524.712592344458</v>
       </c>
       <c r="P15" t="n">
-        <v>1686.980039158656</v>
+        <v>1686.980039158655</v>
       </c>
       <c r="Q15" t="n">
         <v>1775.234255540018</v>
       </c>
       <c r="R15" t="n">
-        <v>1787.049525288419</v>
+        <v>1787.049525288418</v>
       </c>
       <c r="S15" t="n">
         <v>1700.495187579393</v>
@@ -5390,19 +5390,19 @@
         <v>1545.804889936497</v>
       </c>
       <c r="U15" t="n">
-        <v>1348.530002352791</v>
+        <v>1545.804889936497</v>
       </c>
       <c r="V15" t="n">
-        <v>1134.818475345825</v>
+        <v>1332.09336292953</v>
       </c>
       <c r="W15" t="n">
-        <v>921.5853070821537</v>
+        <v>1118.860194665859</v>
       </c>
       <c r="X15" t="n">
-        <v>745.2593252210465</v>
+        <v>942.5342128047519</v>
       </c>
       <c r="Y15" t="n">
-        <v>745.2593252210465</v>
+        <v>783.1322531685819</v>
       </c>
     </row>
     <row r="16">
@@ -5412,13 +5412,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>537.74837671408</v>
+        <v>687.060464084567</v>
       </c>
       <c r="C16" t="n">
-        <v>366.6550042757965</v>
+        <v>687.060464084567</v>
       </c>
       <c r="D16" t="n">
-        <v>366.6550042757965</v>
+        <v>527.565819407477</v>
       </c>
       <c r="E16" t="n">
         <v>366.6550042757965</v>
@@ -5436,52 +5436,52 @@
         <v>35.74099050576837</v>
       </c>
       <c r="J16" t="n">
-        <v>51.86344281542365</v>
+        <v>116.86480644676</v>
       </c>
       <c r="K16" t="n">
-        <v>110.3049721335449</v>
+        <v>175.3063357648813</v>
       </c>
       <c r="L16" t="n">
-        <v>451.4831578130897</v>
+        <v>262.2032206471523</v>
       </c>
       <c r="M16" t="n">
-        <v>889.3896932141686</v>
+        <v>700.1097560482312</v>
       </c>
       <c r="N16" t="n">
-        <v>1315.336568651598</v>
+        <v>1126.056631485661</v>
       </c>
       <c r="O16" t="n">
-        <v>1708.927989328892</v>
+        <v>1519.648052162955</v>
       </c>
       <c r="P16" t="n">
-        <v>1768.392458898498</v>
+        <v>1642.118498692661</v>
       </c>
       <c r="Q16" t="n">
-        <v>1787.049525288419</v>
+        <v>1787.049525288418</v>
       </c>
       <c r="R16" t="n">
-        <v>1787.049525288419</v>
+        <v>1787.049525288418</v>
       </c>
       <c r="S16" t="n">
         <v>1617.518699191836</v>
       </c>
       <c r="T16" t="n">
-        <v>1382.103837451297</v>
+        <v>1617.518699191836</v>
       </c>
       <c r="U16" t="n">
-        <v>1188.527643859676</v>
+        <v>1429.209689327245</v>
       </c>
       <c r="V16" t="n">
-        <v>1188.527643859676</v>
+        <v>1429.209689327245</v>
       </c>
       <c r="W16" t="n">
-        <v>1188.527643859676</v>
+        <v>1150.140024836119</v>
       </c>
       <c r="X16" t="n">
-        <v>950.1837817193597</v>
+        <v>911.7961626958023</v>
       </c>
       <c r="Y16" t="n">
-        <v>725.4480831081244</v>
+        <v>687.060464084567</v>
       </c>
     </row>
     <row r="17">
@@ -5491,40 +5491,40 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>35.74099050576836</v>
+        <v>1574.284793965925</v>
       </c>
       <c r="C17" t="n">
-        <v>35.74099050576836</v>
+        <v>1164.160203279195</v>
       </c>
       <c r="D17" t="n">
-        <v>35.74099050576836</v>
+        <v>1164.160203279195</v>
       </c>
       <c r="E17" t="n">
-        <v>35.74099050576836</v>
+        <v>863.3428042536182</v>
       </c>
       <c r="F17" t="n">
-        <v>35.74099050576836</v>
+        <v>442.3123922073057</v>
       </c>
       <c r="G17" t="n">
-        <v>35.74099050576836</v>
+        <v>35.74099050576837</v>
       </c>
       <c r="H17" t="n">
-        <v>35.74099050576836</v>
+        <v>35.74099050576837</v>
       </c>
       <c r="I17" t="n">
-        <v>35.74099050576836</v>
+        <v>35.74099050576837</v>
       </c>
       <c r="J17" t="n">
-        <v>142.5703854689898</v>
+        <v>142.5703854689896</v>
       </c>
       <c r="K17" t="n">
-        <v>323.2290557446588</v>
+        <v>323.2290557446586</v>
       </c>
       <c r="L17" t="n">
-        <v>562.2973247064782</v>
+        <v>562.2973247064781</v>
       </c>
       <c r="M17" t="n">
-        <v>841.132959615297</v>
+        <v>841.1329596152971</v>
       </c>
       <c r="N17" t="n">
         <v>1126.349039004049</v>
@@ -5536,7 +5536,7 @@
         <v>1601.546999092373</v>
       </c>
       <c r="Q17" t="n">
-        <v>1740.697478824116</v>
+        <v>1740.697478824117</v>
       </c>
       <c r="R17" t="n">
         <v>1787.049525288418</v>
@@ -5545,22 +5545,22 @@
         <v>1787.049525288418</v>
       </c>
       <c r="T17" t="n">
-        <v>1787.049525288418</v>
+        <v>1574.284793965925</v>
       </c>
       <c r="U17" t="n">
-        <v>1530.161584140379</v>
+        <v>1574.284793965925</v>
       </c>
       <c r="V17" t="n">
-        <v>1221.081362253557</v>
+        <v>1574.284793965925</v>
       </c>
       <c r="W17" t="n">
-        <v>837.3210613887258</v>
+        <v>1574.284793965925</v>
       </c>
       <c r="X17" t="n">
-        <v>436.6776635576783</v>
+        <v>1574.284793965925</v>
       </c>
       <c r="Y17" t="n">
-        <v>35.74099050576836</v>
+        <v>1574.284793965925</v>
       </c>
     </row>
     <row r="18">
@@ -5570,49 +5570,49 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>532.108670658315</v>
+        <v>455.6666323661997</v>
       </c>
       <c r="C18" t="n">
-        <v>398.1135994072607</v>
+        <v>321.6715611151454</v>
       </c>
       <c r="D18" t="n">
-        <v>281.2164416266531</v>
+        <v>321.6715611151454</v>
       </c>
       <c r="E18" t="n">
-        <v>160.7236256189811</v>
+        <v>201.1787451074734</v>
       </c>
       <c r="F18" t="n">
-        <v>51.76374580148564</v>
+        <v>201.1787451074734</v>
       </c>
       <c r="G18" t="n">
-        <v>35.74099050576836</v>
+        <v>95.34266624856059</v>
       </c>
       <c r="H18" t="n">
-        <v>35.74099050576836</v>
+        <v>35.74099050576837</v>
       </c>
       <c r="I18" t="n">
-        <v>35.74099050576836</v>
+        <v>35.74099050576837</v>
       </c>
       <c r="J18" t="n">
-        <v>91.74661827365897</v>
+        <v>170.2194754076013</v>
       </c>
       <c r="K18" t="n">
-        <v>534.0413757825424</v>
+        <v>297.5947177216659</v>
       </c>
       <c r="L18" t="n">
-        <v>724.0737373228646</v>
+        <v>487.6270792619881</v>
       </c>
       <c r="M18" t="n">
-        <v>953.6720716027552</v>
+        <v>717.2254135418787</v>
       </c>
       <c r="N18" t="n">
-        <v>1195.182691790746</v>
+        <v>958.7360337298695</v>
       </c>
       <c r="O18" t="n">
-        <v>1407.118709277813</v>
+        <v>1170.672051216937</v>
       </c>
       <c r="P18" t="n">
-        <v>1686.980039158655</v>
+        <v>1332.939498031135</v>
       </c>
       <c r="Q18" t="n">
         <v>1775.234255540018</v>
@@ -5621,25 +5621,25 @@
         <v>1787.049525288418</v>
       </c>
       <c r="S18" t="n">
-        <v>1787.049525288418</v>
+        <v>1700.495187579393</v>
       </c>
       <c r="T18" t="n">
-        <v>1632.359227645522</v>
+        <v>1545.804889936497</v>
       </c>
       <c r="U18" t="n">
-        <v>1435.084340061816</v>
+        <v>1348.530002352791</v>
       </c>
       <c r="V18" t="n">
-        <v>1221.37281305485</v>
+        <v>1134.818475345825</v>
       </c>
       <c r="W18" t="n">
-        <v>1008.139644791179</v>
+        <v>931.6976064990636</v>
       </c>
       <c r="X18" t="n">
-        <v>831.8136629300716</v>
+        <v>755.3716246379563</v>
       </c>
       <c r="Y18" t="n">
-        <v>672.4117032939016</v>
+        <v>595.9696650017863</v>
       </c>
     </row>
     <row r="19">
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1060.887579578964</v>
+        <v>945.4044227347672</v>
       </c>
       <c r="C19" t="n">
-        <v>889.7942071406803</v>
+        <v>774.3110502964837</v>
       </c>
       <c r="D19" t="n">
-        <v>730.2995624635903</v>
+        <v>614.8164056193937</v>
       </c>
       <c r="E19" t="n">
-        <v>569.3887473319098</v>
+        <v>453.9055904877132</v>
       </c>
       <c r="F19" t="n">
-        <v>404.7576214425011</v>
+        <v>289.2744645983045</v>
       </c>
       <c r="G19" t="n">
-        <v>238.4747335618817</v>
+        <v>122.991576717685</v>
       </c>
       <c r="H19" t="n">
-        <v>97.46926130890861</v>
+        <v>122.991576717685</v>
       </c>
       <c r="I19" t="n">
-        <v>35.74099050576836</v>
+        <v>35.74099050576837</v>
       </c>
       <c r="J19" t="n">
         <v>116.86480644676</v>
@@ -5682,43 +5682,43 @@
         <v>782.4625254678895</v>
       </c>
       <c r="M19" t="n">
-        <v>1220.369060868968</v>
+        <v>875.4027113546829</v>
       </c>
       <c r="N19" t="n">
-        <v>1504.1373678645</v>
+        <v>969.3152853445268</v>
       </c>
       <c r="O19" t="n">
-        <v>1582.654029123054</v>
+        <v>1362.906706021821</v>
       </c>
       <c r="P19" t="n">
-        <v>1642.11849869266</v>
+        <v>1683.268659064545</v>
       </c>
       <c r="Q19" t="n">
         <v>1787.049525288418</v>
       </c>
       <c r="R19" t="n">
-        <v>1787.049525288418</v>
+        <v>1745.279268752168</v>
       </c>
       <c r="S19" t="n">
-        <v>1617.518699191836</v>
+        <v>1745.279268752168</v>
       </c>
       <c r="T19" t="n">
-        <v>1617.518699191836</v>
+        <v>1745.279268752168</v>
       </c>
       <c r="U19" t="n">
-        <v>1334.773324639442</v>
+        <v>1462.533894199775</v>
       </c>
       <c r="V19" t="n">
-        <v>1060.887579578964</v>
+        <v>1462.533894199775</v>
       </c>
       <c r="W19" t="n">
-        <v>1060.887579578964</v>
+        <v>1462.533894199775</v>
       </c>
       <c r="X19" t="n">
-        <v>1060.887579578964</v>
+        <v>1357.839827740047</v>
       </c>
       <c r="Y19" t="n">
-        <v>1060.887579578964</v>
+        <v>1133.104129128812</v>
       </c>
     </row>
     <row r="20">
@@ -5728,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>852.4369828940355</v>
+        <v>1145.471933126027</v>
       </c>
       <c r="C20" t="n">
-        <v>442.3123922073057</v>
+        <v>1145.471933126027</v>
       </c>
       <c r="D20" t="n">
-        <v>442.3123922073057</v>
+        <v>1145.471933126027</v>
       </c>
       <c r="E20" t="n">
-        <v>442.3123922073057</v>
+        <v>731.1317176429238</v>
       </c>
       <c r="F20" t="n">
-        <v>442.3123922073057</v>
+        <v>731.1317176429238</v>
       </c>
       <c r="G20" t="n">
-        <v>35.74099050576837</v>
+        <v>324.5603159413865</v>
       </c>
       <c r="H20" t="n">
         <v>35.74099050576837</v>
@@ -5752,16 +5752,16 @@
         <v>35.74099050576837</v>
       </c>
       <c r="J20" t="n">
-        <v>142.5703854689898</v>
+        <v>142.57038546899</v>
       </c>
       <c r="K20" t="n">
-        <v>323.2290557446588</v>
+        <v>323.229055744659</v>
       </c>
       <c r="L20" t="n">
-        <v>562.2973247064783</v>
+        <v>562.2973247064785</v>
       </c>
       <c r="M20" t="n">
-        <v>841.1329596152971</v>
+        <v>841.1329596152973</v>
       </c>
       <c r="N20" t="n">
         <v>1126.349039004049</v>
@@ -5779,25 +5779,25 @@
         <v>1787.049525288418</v>
       </c>
       <c r="S20" t="n">
-        <v>1787.049525288418</v>
+        <v>1700.918407900826</v>
       </c>
       <c r="T20" t="n">
-        <v>1787.049525288418</v>
+        <v>1700.918407900826</v>
       </c>
       <c r="U20" t="n">
-        <v>1787.049525288418</v>
+        <v>1444.030466752786</v>
       </c>
       <c r="V20" t="n">
-        <v>1787.049525288418</v>
+        <v>1444.030466752786</v>
       </c>
       <c r="W20" t="n">
-        <v>1787.049525288418</v>
+        <v>1444.030466752786</v>
       </c>
       <c r="X20" t="n">
-        <v>1386.406127457371</v>
+        <v>1145.471933126027</v>
       </c>
       <c r="Y20" t="n">
-        <v>985.4694544054611</v>
+        <v>1145.471933126027</v>
       </c>
     </row>
     <row r="21">
@@ -5807,49 +5807,49 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>445.5543329492897</v>
+        <v>572.5637901468074</v>
       </c>
       <c r="C21" t="n">
-        <v>311.5592616982354</v>
+        <v>438.568718895753</v>
       </c>
       <c r="D21" t="n">
-        <v>194.6621039176278</v>
+        <v>321.6715611151454</v>
       </c>
       <c r="E21" t="n">
-        <v>144.7008703232638</v>
+        <v>201.1787451074734</v>
       </c>
       <c r="F21" t="n">
-        <v>35.74099050576837</v>
+        <v>201.1787451074734</v>
       </c>
       <c r="G21" t="n">
-        <v>35.74099050576837</v>
+        <v>95.34266624856059</v>
       </c>
       <c r="H21" t="n">
         <v>35.74099050576837</v>
       </c>
       <c r="I21" t="n">
-        <v>35.74099050576837</v>
+        <v>54.34778796170226</v>
       </c>
       <c r="J21" t="n">
-        <v>91.74661827365898</v>
+        <v>110.3534157295929</v>
       </c>
       <c r="K21" t="n">
-        <v>219.1218605877236</v>
+        <v>552.6481732384764</v>
       </c>
       <c r="L21" t="n">
-        <v>409.1542221280458</v>
+        <v>742.6805347787986</v>
       </c>
       <c r="M21" t="n">
-        <v>638.7525564079364</v>
+        <v>972.2788690586891</v>
       </c>
       <c r="N21" t="n">
-        <v>958.7360337298695</v>
+        <v>1213.78948924668</v>
       </c>
       <c r="O21" t="n">
-        <v>1170.672051216937</v>
+        <v>1425.725506733747</v>
       </c>
       <c r="P21" t="n">
-        <v>1332.939498031135</v>
+        <v>1686.980039158655</v>
       </c>
       <c r="Q21" t="n">
         <v>1775.234255540018</v>
@@ -5867,16 +5867,16 @@
         <v>1348.530002352791</v>
       </c>
       <c r="V21" t="n">
-        <v>1134.818475345825</v>
+        <v>1261.827932543342</v>
       </c>
       <c r="W21" t="n">
-        <v>921.5853070821535</v>
+        <v>1048.594764279671</v>
       </c>
       <c r="X21" t="n">
-        <v>745.2593252210463</v>
+        <v>872.268782418564</v>
       </c>
       <c r="Y21" t="n">
-        <v>585.8573655848763</v>
+        <v>712.866822782394</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>691.870948642231</v>
+        <v>423.491693647748</v>
       </c>
       <c r="C22" t="n">
-        <v>520.7775762039475</v>
+        <v>423.491693647748</v>
       </c>
       <c r="D22" t="n">
-        <v>361.2829315268576</v>
+        <v>263.9970489706581</v>
       </c>
       <c r="E22" t="n">
-        <v>200.3721163951771</v>
+        <v>263.9970489706581</v>
       </c>
       <c r="F22" t="n">
-        <v>35.74099050576837</v>
+        <v>263.9970489706581</v>
       </c>
       <c r="G22" t="n">
-        <v>35.74099050576837</v>
+        <v>263.9970489706581</v>
       </c>
       <c r="H22" t="n">
-        <v>35.74099050576837</v>
+        <v>122.991576717685</v>
       </c>
       <c r="I22" t="n">
         <v>35.74099050576837</v>
       </c>
       <c r="J22" t="n">
-        <v>116.86480644676</v>
+        <v>51.86344281542365</v>
       </c>
       <c r="K22" t="n">
-        <v>381.5865293505954</v>
+        <v>134.6760277369626</v>
       </c>
       <c r="L22" t="n">
-        <v>782.4625254678895</v>
+        <v>535.5520238542567</v>
       </c>
       <c r="M22" t="n">
-        <v>1149.327310401539</v>
+        <v>628.4922097410501</v>
       </c>
       <c r="N22" t="n">
-        <v>1243.239884391383</v>
+        <v>1054.43908517848</v>
       </c>
       <c r="O22" t="n">
-        <v>1321.756545649936</v>
+        <v>1448.030505855774</v>
       </c>
       <c r="P22" t="n">
-        <v>1642.118498692661</v>
+        <v>1768.392458898498</v>
       </c>
       <c r="Q22" t="n">
         <v>1787.049525288418</v>
       </c>
       <c r="R22" t="n">
-        <v>1787.049525288418</v>
+        <v>1745.279268752168</v>
       </c>
       <c r="S22" t="n">
-        <v>1707.905918945387</v>
+        <v>1575.748442655586</v>
       </c>
       <c r="T22" t="n">
-        <v>1707.905918945387</v>
+        <v>1340.333580915047</v>
       </c>
       <c r="U22" t="n">
-        <v>1707.905918945387</v>
+        <v>1057.588206362653</v>
       </c>
       <c r="V22" t="n">
-        <v>1434.020173884909</v>
+        <v>940.9052202791903</v>
       </c>
       <c r="W22" t="n">
-        <v>1154.950509393783</v>
+        <v>661.8355557880647</v>
       </c>
       <c r="X22" t="n">
-        <v>916.6066472534663</v>
+        <v>423.491693647748</v>
       </c>
       <c r="Y22" t="n">
-        <v>691.870948642231</v>
+        <v>423.491693647748</v>
       </c>
     </row>
     <row r="23">
@@ -5965,49 +5965,49 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>458.0954604841349</v>
+        <v>842.4941913110512</v>
       </c>
       <c r="C23" t="n">
-        <v>458.0954604841349</v>
+        <v>432.3696006243213</v>
       </c>
       <c r="D23" t="n">
-        <v>458.0954604841349</v>
+        <v>432.3696006243213</v>
       </c>
       <c r="E23" t="n">
-        <v>43.75524500103158</v>
+        <v>432.3696006243213</v>
       </c>
       <c r="F23" t="n">
-        <v>43.75524500103158</v>
+        <v>40.5566912611768</v>
       </c>
       <c r="G23" t="n">
-        <v>43.75524500103158</v>
+        <v>40.5566912611768</v>
       </c>
       <c r="H23" t="n">
-        <v>43.75524500103158</v>
+        <v>40.5566912611768</v>
       </c>
       <c r="I23" t="n">
         <v>40.5566912611768</v>
       </c>
       <c r="J23" t="n">
-        <v>256.3597561632703</v>
+        <v>147.3860862243982</v>
       </c>
       <c r="K23" t="n">
-        <v>437.0184264389393</v>
+        <v>328.0447565000671</v>
       </c>
       <c r="L23" t="n">
-        <v>676.0866954007588</v>
+        <v>567.1130254618867</v>
       </c>
       <c r="M23" t="n">
-        <v>954.9223303095775</v>
+        <v>845.9486603707054</v>
       </c>
       <c r="N23" t="n">
-        <v>1240.138409698329</v>
+        <v>1131.164739759457</v>
       </c>
       <c r="O23" t="n">
-        <v>1504.059084884098</v>
+        <v>1395.085414945226</v>
       </c>
       <c r="P23" t="n">
-        <v>1715.336369786654</v>
+        <v>1606.362699847782</v>
       </c>
       <c r="Q23" t="n">
         <v>1854.486849518397</v>
@@ -6019,22 +6019,22 @@
         <v>2027.83456305884</v>
       </c>
       <c r="T23" t="n">
-        <v>1815.069831736347</v>
+        <v>2027.83456305884</v>
       </c>
       <c r="U23" t="n">
-        <v>1652.720338844503</v>
+        <v>2027.83456305884</v>
       </c>
       <c r="V23" t="n">
-        <v>1652.720338844503</v>
+        <v>2027.83456305884</v>
       </c>
       <c r="W23" t="n">
-        <v>1268.960037979672</v>
+        <v>1644.074262194008</v>
       </c>
       <c r="X23" t="n">
-        <v>868.3166401486244</v>
+        <v>1243.430864362961</v>
       </c>
       <c r="Y23" t="n">
-        <v>868.3166401486244</v>
+        <v>842.4941913110512</v>
       </c>
     </row>
     <row r="24">
@@ -6047,16 +6047,16 @@
         <v>686.3393707197113</v>
       </c>
       <c r="C24" t="n">
-        <v>552.344299468657</v>
+        <v>552.3442994686569</v>
       </c>
       <c r="D24" t="n">
-        <v>435.4471416880494</v>
+        <v>435.4471416880493</v>
       </c>
       <c r="E24" t="n">
-        <v>314.9543256803775</v>
+        <v>314.9543256803773</v>
       </c>
       <c r="F24" t="n">
-        <v>205.994445862882</v>
+        <v>205.9944458628819</v>
       </c>
       <c r="G24" t="n">
         <v>100.158367003969</v>
@@ -6068,28 +6068,28 @@
         <v>59.1634887171107</v>
       </c>
       <c r="J24" t="n">
-        <v>302.5615257855641</v>
+        <v>271.1051808247888</v>
       </c>
       <c r="K24" t="n">
-        <v>804.450580142627</v>
+        <v>398.4804231388534</v>
       </c>
       <c r="L24" t="n">
-        <v>994.4829416829492</v>
+        <v>588.5127846791756</v>
       </c>
       <c r="M24" t="n">
-        <v>1224.08127596284</v>
+        <v>818.1111189590662</v>
       </c>
       <c r="N24" t="n">
-        <v>1465.591896150831</v>
+        <v>1059.621739147057</v>
       </c>
       <c r="O24" t="n">
-        <v>1677.527913637898</v>
+        <v>1271.557756634124</v>
       </c>
       <c r="P24" t="n">
-        <v>1839.795360452096</v>
+        <v>1433.825203448322</v>
       </c>
       <c r="Q24" t="n">
-        <v>1928.049576833459</v>
+        <v>1928.049576833458</v>
       </c>
       <c r="R24" t="n">
         <v>2027.83456305884</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>294.0901653537129</v>
+        <v>211.6500636994603</v>
       </c>
       <c r="C25" t="n">
-        <v>294.0901653537129</v>
+        <v>40.5566912611768</v>
       </c>
       <c r="D25" t="n">
-        <v>294.0901653537129</v>
+        <v>40.5566912611768</v>
       </c>
       <c r="E25" t="n">
-        <v>294.0901653537129</v>
+        <v>40.5566912611768</v>
       </c>
       <c r="F25" t="n">
-        <v>294.0901653537129</v>
+        <v>40.5566912611768</v>
       </c>
       <c r="G25" t="n">
-        <v>127.8072774730934</v>
+        <v>40.5566912611768</v>
       </c>
       <c r="H25" t="n">
-        <v>127.8072774730934</v>
+        <v>40.5566912611768</v>
       </c>
       <c r="I25" t="n">
         <v>40.5566912611768</v>
@@ -6153,13 +6153,13 @@
         <v>386.4022301060039</v>
       </c>
       <c r="L25" t="n">
-        <v>787.2782262232979</v>
+        <v>620.171511323296</v>
       </c>
       <c r="M25" t="n">
-        <v>1075.03758875322</v>
+        <v>1058.078046724375</v>
       </c>
       <c r="N25" t="n">
-        <v>1168.950162743064</v>
+        <v>1484.024922161804</v>
       </c>
       <c r="O25" t="n">
         <v>1562.541583420358</v>
@@ -6177,22 +6177,22 @@
         <v>1816.533480426008</v>
       </c>
       <c r="T25" t="n">
-        <v>1581.118618685469</v>
+        <v>1581.118618685468</v>
       </c>
       <c r="U25" t="n">
-        <v>1298.373244133075</v>
+        <v>1415.38474039666</v>
       </c>
       <c r="V25" t="n">
-        <v>1024.487499072597</v>
+        <v>1141.498995336182</v>
       </c>
       <c r="W25" t="n">
-        <v>745.4178345814712</v>
+        <v>862.4293308450567</v>
       </c>
       <c r="X25" t="n">
-        <v>507.0739724411546</v>
+        <v>624.08546870474</v>
       </c>
       <c r="Y25" t="n">
-        <v>481.7898717477573</v>
+        <v>399.3497700935047</v>
       </c>
     </row>
     <row r="26">
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>40.55669126117681</v>
+        <v>1414.4264339053</v>
       </c>
       <c r="C26" t="n">
-        <v>40.55669126117681</v>
+        <v>1156.977830444645</v>
       </c>
       <c r="D26" t="n">
-        <v>40.55669126117681</v>
+        <v>1156.977830444645</v>
       </c>
       <c r="E26" t="n">
-        <v>40.55669126117681</v>
+        <v>1156.977830444645</v>
       </c>
       <c r="F26" t="n">
-        <v>40.55669126117681</v>
+        <v>735.9474183983323</v>
       </c>
       <c r="G26" t="n">
-        <v>40.55669126117681</v>
+        <v>329.3760166967949</v>
       </c>
       <c r="H26" t="n">
         <v>40.55669126117681</v>
@@ -6256,22 +6256,22 @@
         <v>2027.83456305884</v>
       </c>
       <c r="T26" t="n">
-        <v>1832.622558820524</v>
+        <v>1815.069831736347</v>
       </c>
       <c r="U26" t="n">
-        <v>1575.734617672485</v>
+        <v>1815.069831736347</v>
       </c>
       <c r="V26" t="n">
-        <v>1225.897063008966</v>
+        <v>1815.069831736347</v>
       </c>
       <c r="W26" t="n">
-        <v>842.1367621441342</v>
+        <v>1815.069831736347</v>
       </c>
       <c r="X26" t="n">
-        <v>441.4933643130867</v>
+        <v>1414.4264339053</v>
       </c>
       <c r="Y26" t="n">
-        <v>40.55669126117681</v>
+        <v>1414.4264339053</v>
       </c>
     </row>
     <row r="27">
@@ -6302,31 +6302,31 @@
         <v>40.55669126117681</v>
       </c>
       <c r="I27" t="n">
-        <v>40.55669126117681</v>
+        <v>59.1634887171107</v>
       </c>
       <c r="J27" t="n">
-        <v>96.56231902906742</v>
+        <v>271.1051808247893</v>
       </c>
       <c r="K27" t="n">
-        <v>223.9375613431321</v>
+        <v>398.4804231388539</v>
       </c>
       <c r="L27" t="n">
-        <v>725.8266157001951</v>
+        <v>588.5127846791761</v>
       </c>
       <c r="M27" t="n">
-        <v>955.4249499800857</v>
+        <v>818.1111189590666</v>
       </c>
       <c r="N27" t="n">
-        <v>1196.935570168077</v>
+        <v>1059.621739147057</v>
       </c>
       <c r="O27" t="n">
-        <v>1425.876022572014</v>
+        <v>1271.557756634125</v>
       </c>
       <c r="P27" t="n">
-        <v>1927.765076929077</v>
+        <v>1433.825203448323</v>
       </c>
       <c r="Q27" t="n">
-        <v>2016.01929331044</v>
+        <v>1928.049576833459</v>
       </c>
       <c r="R27" t="n">
         <v>2027.83456305884</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1003.975009531232</v>
+        <v>544.283512209024</v>
       </c>
       <c r="C28" t="n">
-        <v>832.8816370929485</v>
+        <v>373.1901397707405</v>
       </c>
       <c r="D28" t="n">
-        <v>673.3869924158585</v>
+        <v>213.6954950936505</v>
       </c>
       <c r="E28" t="n">
-        <v>512.476177284178</v>
+        <v>213.6954950936505</v>
       </c>
       <c r="F28" t="n">
-        <v>347.8450513947693</v>
+        <v>213.6954950936505</v>
       </c>
       <c r="G28" t="n">
-        <v>181.5621635141499</v>
+        <v>47.41260721303112</v>
       </c>
       <c r="H28" t="n">
         <v>40.55669126117681</v>
@@ -6387,22 +6387,22 @@
         <v>121.6805072021685</v>
       </c>
       <c r="K28" t="n">
-        <v>291.3921994662173</v>
+        <v>386.4022301060039</v>
       </c>
       <c r="L28" t="n">
-        <v>692.2681955835114</v>
+        <v>473.2991149882749</v>
       </c>
       <c r="M28" t="n">
-        <v>1130.17473098459</v>
+        <v>911.2056503893538</v>
       </c>
       <c r="N28" t="n">
-        <v>1556.12160642202</v>
+        <v>1337.152525826783</v>
       </c>
       <c r="O28" t="n">
-        <v>1949.713027099314</v>
+        <v>1730.743946504077</v>
       </c>
       <c r="P28" t="n">
-        <v>2009.17749666892</v>
+        <v>1882.903536463083</v>
       </c>
       <c r="Q28" t="n">
         <v>2027.83456305884</v>
@@ -6411,25 +6411,25 @@
         <v>2027.83456305884</v>
       </c>
       <c r="S28" t="n">
-        <v>1858.303736962258</v>
+        <v>2027.83456305884</v>
       </c>
       <c r="T28" t="n">
-        <v>1622.888875221719</v>
+        <v>1792.419701318301</v>
       </c>
       <c r="U28" t="n">
-        <v>1622.888875221719</v>
+        <v>1509.674326765907</v>
       </c>
       <c r="V28" t="n">
-        <v>1622.888875221719</v>
+        <v>1235.788581705429</v>
       </c>
       <c r="W28" t="n">
-        <v>1622.888875221719</v>
+        <v>956.7189172143037</v>
       </c>
       <c r="X28" t="n">
-        <v>1416.410414536512</v>
+        <v>956.7189172143037</v>
       </c>
       <c r="Y28" t="n">
-        <v>1191.674715925276</v>
+        <v>731.9832186030684</v>
       </c>
     </row>
     <row r="29">
@@ -6439,52 +6439,52 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1130.545592954848</v>
+        <v>917.7808616323548</v>
       </c>
       <c r="C29" t="n">
-        <v>1130.545592954848</v>
+        <v>507.6562709456249</v>
       </c>
       <c r="D29" t="n">
-        <v>1130.545592954848</v>
+        <v>461.5871033074893</v>
       </c>
       <c r="E29" t="n">
-        <v>871.3570587488814</v>
+        <v>461.5871033074893</v>
       </c>
       <c r="F29" t="n">
-        <v>450.3266467025689</v>
+        <v>40.55669126117681</v>
       </c>
       <c r="G29" t="n">
-        <v>43.75524500103159</v>
+        <v>40.55669126117681</v>
       </c>
       <c r="H29" t="n">
-        <v>43.75524500103159</v>
+        <v>40.55669126117681</v>
       </c>
       <c r="I29" t="n">
         <v>40.55669126117681</v>
       </c>
       <c r="J29" t="n">
-        <v>383.3554232394118</v>
+        <v>256.3597561632706</v>
       </c>
       <c r="K29" t="n">
-        <v>564.0140935150807</v>
+        <v>437.0184264389395</v>
       </c>
       <c r="L29" t="n">
-        <v>803.0823624769002</v>
+        <v>676.086695400759</v>
       </c>
       <c r="M29" t="n">
-        <v>1081.917997385719</v>
+        <v>954.9223303095778</v>
       </c>
       <c r="N29" t="n">
-        <v>1367.134076774471</v>
+        <v>1240.13840969833</v>
       </c>
       <c r="O29" t="n">
-        <v>1631.05475196024</v>
+        <v>1504.059084884098</v>
       </c>
       <c r="P29" t="n">
-        <v>1842.332036862795</v>
+        <v>1715.336369786654</v>
       </c>
       <c r="Q29" t="n">
-        <v>1981.482516594539</v>
+        <v>1854.486849518398</v>
       </c>
       <c r="R29" t="n">
         <v>2027.83456305884</v>
@@ -6493,22 +6493,22 @@
         <v>1941.703445671247</v>
       </c>
       <c r="T29" t="n">
-        <v>1941.703445671247</v>
+        <v>1728.938714348754</v>
       </c>
       <c r="U29" t="n">
-        <v>1941.703445671247</v>
+        <v>1728.938714348754</v>
       </c>
       <c r="V29" t="n">
-        <v>1941.703445671247</v>
+        <v>1728.938714348754</v>
       </c>
       <c r="W29" t="n">
-        <v>1941.703445671247</v>
+        <v>1728.938714348754</v>
       </c>
       <c r="X29" t="n">
-        <v>1941.703445671247</v>
+        <v>1728.938714348754</v>
       </c>
       <c r="Y29" t="n">
-        <v>1540.766772619338</v>
+        <v>1328.002041296844</v>
       </c>
     </row>
     <row r="30">
@@ -6518,10 +6518,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>686.3393707197113</v>
+        <v>686.339370719711</v>
       </c>
       <c r="C30" t="n">
-        <v>552.3442994686569</v>
+        <v>552.3442994686568</v>
       </c>
       <c r="D30" t="n">
         <v>435.4471416880493</v>
@@ -6539,31 +6539,31 @@
         <v>40.55669126117681</v>
       </c>
       <c r="I30" t="n">
-        <v>44.57257762465921</v>
+        <v>59.1634887171107</v>
       </c>
       <c r="J30" t="n">
-        <v>100.5782053925498</v>
+        <v>271.1051808247893</v>
       </c>
       <c r="K30" t="n">
-        <v>602.4672597496128</v>
+        <v>398.4804231388539</v>
       </c>
       <c r="L30" t="n">
-        <v>792.499621289935</v>
+        <v>588.5127846791761</v>
       </c>
       <c r="M30" t="n">
-        <v>1022.097955569826</v>
+        <v>818.1111189590666</v>
       </c>
       <c r="N30" t="n">
-        <v>1263.608575757816</v>
+        <v>1059.621739147057</v>
       </c>
       <c r="O30" t="n">
-        <v>1765.497630114879</v>
+        <v>1271.557756634125</v>
       </c>
       <c r="P30" t="n">
-        <v>1927.765076929077</v>
+        <v>1433.825203448323</v>
       </c>
       <c r="Q30" t="n">
-        <v>2016.01929331044</v>
+        <v>1928.049576833459</v>
       </c>
       <c r="R30" t="n">
         <v>2027.83456305884</v>
@@ -6572,7 +6572,7 @@
         <v>1941.280225349815</v>
       </c>
       <c r="T30" t="n">
-        <v>1786.589927706918</v>
+        <v>1786.589927706919</v>
       </c>
       <c r="U30" t="n">
         <v>1589.315040123212</v>
@@ -6584,10 +6584,10 @@
         <v>1162.370344852575</v>
       </c>
       <c r="X30" t="n">
-        <v>986.0443629914679</v>
+        <v>986.0443629914678</v>
       </c>
       <c r="Y30" t="n">
-        <v>826.6424033552979</v>
+        <v>826.6424033552977</v>
       </c>
     </row>
     <row r="31">
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>419.1541985245188</v>
+        <v>679.8492389647333</v>
       </c>
       <c r="C31" t="n">
-        <v>248.0608260862354</v>
+        <v>508.7558665264498</v>
       </c>
       <c r="D31" t="n">
-        <v>248.0608260862354</v>
+        <v>508.7558665264498</v>
       </c>
       <c r="E31" t="n">
-        <v>248.0608260862354</v>
+        <v>347.8450513947693</v>
       </c>
       <c r="F31" t="n">
-        <v>248.0608260862354</v>
+        <v>347.8450513947693</v>
       </c>
       <c r="G31" t="n">
-        <v>81.77793820561592</v>
+        <v>181.5621635141499</v>
       </c>
       <c r="H31" t="n">
-        <v>81.77793820561592</v>
+        <v>40.55669126117681</v>
       </c>
       <c r="I31" t="n">
         <v>40.55669126117681</v>
@@ -6624,22 +6624,22 @@
         <v>121.6805072021685</v>
       </c>
       <c r="K31" t="n">
-        <v>386.4022301060039</v>
+        <v>180.1220365202897</v>
       </c>
       <c r="L31" t="n">
-        <v>473.2991149882749</v>
+        <v>431.3707121103934</v>
       </c>
       <c r="M31" t="n">
-        <v>743.003287305635</v>
+        <v>869.2772475114723</v>
       </c>
       <c r="N31" t="n">
-        <v>1168.950162743065</v>
+        <v>1295.224122948902</v>
       </c>
       <c r="O31" t="n">
-        <v>1562.541583420358</v>
+        <v>1688.815543626196</v>
       </c>
       <c r="P31" t="n">
-        <v>1882.903536463083</v>
+        <v>2009.17749666892</v>
       </c>
       <c r="Q31" t="n">
         <v>2027.83456305884</v>
@@ -6654,19 +6654,19 @@
         <v>1622.888875221719</v>
       </c>
       <c r="U31" t="n">
-        <v>1622.888875221719</v>
+        <v>1340.143500669325</v>
       </c>
       <c r="V31" t="n">
-        <v>1349.003130161241</v>
+        <v>1146.618609849903</v>
       </c>
       <c r="W31" t="n">
-        <v>1069.933465670115</v>
+        <v>867.5489453587777</v>
       </c>
       <c r="X31" t="n">
-        <v>831.5896035297985</v>
+        <v>867.5489453587777</v>
       </c>
       <c r="Y31" t="n">
-        <v>606.8539049185632</v>
+        <v>867.5489453587777</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>866.8391556789215</v>
+        <v>337.5162446204539</v>
       </c>
       <c r="C32" t="n">
-        <v>456.7145649921916</v>
+        <v>337.5162446204539</v>
       </c>
       <c r="D32" t="n">
-        <v>52.25063508525204</v>
+        <v>337.5162446204539</v>
       </c>
       <c r="E32" t="n">
-        <v>52.25063508525204</v>
+        <v>329.3760166967949</v>
       </c>
       <c r="F32" t="n">
-        <v>40.55669126117681</v>
+        <v>329.3760166967949</v>
       </c>
       <c r="G32" t="n">
-        <v>40.55669126117681</v>
+        <v>329.3760166967949</v>
       </c>
       <c r="H32" t="n">
-        <v>40.55669126117681</v>
+        <v>40.5566912611768</v>
       </c>
       <c r="I32" t="n">
-        <v>40.55669126117681</v>
+        <v>40.5566912611768</v>
       </c>
       <c r="J32" t="n">
         <v>147.3860862243982</v>
       </c>
       <c r="K32" t="n">
-        <v>437.0184264389395</v>
+        <v>328.0447565000671</v>
       </c>
       <c r="L32" t="n">
-        <v>676.086695400759</v>
+        <v>567.1130254618867</v>
       </c>
       <c r="M32" t="n">
-        <v>954.9223303095778</v>
+        <v>845.9486603707054</v>
       </c>
       <c r="N32" t="n">
-        <v>1240.13840969833</v>
+        <v>1131.164739759457</v>
       </c>
       <c r="O32" t="n">
-        <v>1504.059084884098</v>
+        <v>1395.085414945226</v>
       </c>
       <c r="P32" t="n">
-        <v>1715.336369786654</v>
+        <v>1842.332036862795</v>
       </c>
       <c r="Q32" t="n">
-        <v>1854.486849518398</v>
+        <v>1981.482516594539</v>
       </c>
       <c r="R32" t="n">
         <v>2027.83456305884</v>
       </c>
       <c r="S32" t="n">
-        <v>2027.83456305884</v>
+        <v>1941.703445671247</v>
       </c>
       <c r="T32" t="n">
-        <v>2027.83456305884</v>
+        <v>1728.938714348754</v>
       </c>
       <c r="U32" t="n">
-        <v>2027.83456305884</v>
+        <v>1472.050773200715</v>
       </c>
       <c r="V32" t="n">
-        <v>1677.997008395321</v>
+        <v>1122.213218537195</v>
       </c>
       <c r="W32" t="n">
-        <v>1677.997008395321</v>
+        <v>738.4529176723638</v>
       </c>
       <c r="X32" t="n">
-        <v>1677.997008395321</v>
+        <v>738.4529176723638</v>
       </c>
       <c r="Y32" t="n">
-        <v>1277.060335343411</v>
+        <v>337.5162446204539</v>
       </c>
     </row>
     <row r="33">
@@ -6755,10 +6755,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>686.3393707197113</v>
+        <v>686.3393707197114</v>
       </c>
       <c r="C33" t="n">
-        <v>552.344299468657</v>
+        <v>552.3442994686571</v>
       </c>
       <c r="D33" t="n">
         <v>435.4471416880494</v>
@@ -6770,34 +6770,34 @@
         <v>205.994445862882</v>
       </c>
       <c r="G33" t="n">
-        <v>100.1583670039691</v>
+        <v>100.158367003969</v>
       </c>
       <c r="H33" t="n">
-        <v>40.55669126117681</v>
+        <v>40.5566912611768</v>
       </c>
       <c r="I33" t="n">
         <v>59.1634887171107</v>
       </c>
       <c r="J33" t="n">
-        <v>163.2353246188074</v>
+        <v>358.8375204596346</v>
       </c>
       <c r="K33" t="n">
-        <v>290.610566932872</v>
+        <v>486.2127627736992</v>
       </c>
       <c r="L33" t="n">
-        <v>792.499621289935</v>
+        <v>676.2451243140214</v>
       </c>
       <c r="M33" t="n">
-        <v>1022.097955569826</v>
+        <v>905.8434585939119</v>
       </c>
       <c r="N33" t="n">
-        <v>1263.608575757816</v>
+        <v>1147.354078781903</v>
       </c>
       <c r="O33" t="n">
-        <v>1765.497630114879</v>
+        <v>1359.527473111106</v>
       </c>
       <c r="P33" t="n">
-        <v>1927.765076929077</v>
+        <v>1521.794919925303</v>
       </c>
       <c r="Q33" t="n">
         <v>2016.01929331044</v>
@@ -6806,25 +6806,25 @@
         <v>2027.83456305884</v>
       </c>
       <c r="S33" t="n">
-        <v>1941.280225349815</v>
+        <v>1941.280225349814</v>
       </c>
       <c r="T33" t="n">
-        <v>1786.589927706919</v>
+        <v>1786.589927706918</v>
       </c>
       <c r="U33" t="n">
         <v>1589.315040123213</v>
       </c>
       <c r="V33" t="n">
-        <v>1375.603513116247</v>
+        <v>1375.603513116246</v>
       </c>
       <c r="W33" t="n">
         <v>1162.370344852575</v>
       </c>
       <c r="X33" t="n">
-        <v>986.0443629914679</v>
+        <v>986.044362991468</v>
       </c>
       <c r="Y33" t="n">
-        <v>826.6424033552979</v>
+        <v>826.642403355298</v>
       </c>
     </row>
     <row r="34">
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>862.9695372782589</v>
+        <v>136.4088239721248</v>
       </c>
       <c r="C34" t="n">
-        <v>691.8761648399754</v>
+        <v>136.4088239721248</v>
       </c>
       <c r="D34" t="n">
-        <v>532.3815201628854</v>
+        <v>40.5566912611768</v>
       </c>
       <c r="E34" t="n">
-        <v>371.4707050312049</v>
+        <v>40.5566912611768</v>
       </c>
       <c r="F34" t="n">
-        <v>206.8395791417962</v>
+        <v>40.5566912611768</v>
       </c>
       <c r="G34" t="n">
-        <v>40.55669126117681</v>
+        <v>40.5566912611768</v>
       </c>
       <c r="H34" t="n">
-        <v>40.55669126117681</v>
+        <v>40.5566912611768</v>
       </c>
       <c r="I34" t="n">
-        <v>40.55669126117681</v>
+        <v>40.5566912611768</v>
       </c>
       <c r="J34" t="n">
         <v>121.6805072021685</v>
@@ -6864,19 +6864,19 @@
         <v>386.4022301060039</v>
       </c>
       <c r="L34" t="n">
-        <v>763.4050135579789</v>
+        <v>565.9942353776737</v>
       </c>
       <c r="M34" t="n">
-        <v>1201.311548959058</v>
+        <v>1003.900770778753</v>
       </c>
       <c r="N34" t="n">
-        <v>1295.224122948902</v>
+        <v>1429.847646216182</v>
       </c>
       <c r="O34" t="n">
-        <v>1688.815543626196</v>
+        <v>1823.439066893476</v>
       </c>
       <c r="P34" t="n">
-        <v>2009.17749666892</v>
+        <v>1882.903536463082</v>
       </c>
       <c r="Q34" t="n">
         <v>2027.83456305884</v>
@@ -6885,25 +6885,25 @@
         <v>2027.83456305884</v>
       </c>
       <c r="S34" t="n">
-        <v>2027.83456305884</v>
+        <v>1858.303736962258</v>
       </c>
       <c r="T34" t="n">
-        <v>1792.419701318301</v>
+        <v>1622.888875221719</v>
       </c>
       <c r="U34" t="n">
-        <v>1509.674326765907</v>
+        <v>1340.143500669325</v>
       </c>
       <c r="V34" t="n">
-        <v>1235.788581705429</v>
+        <v>1066.257755608847</v>
       </c>
       <c r="W34" t="n">
-        <v>956.7189172143037</v>
+        <v>787.1880911177211</v>
       </c>
       <c r="X34" t="n">
-        <v>956.7189172143037</v>
+        <v>548.8442289774046</v>
       </c>
       <c r="Y34" t="n">
-        <v>956.7189172143037</v>
+        <v>324.1085303661692</v>
       </c>
     </row>
     <row r="35">
@@ -6913,46 +6913,46 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1155.360683429091</v>
+        <v>916.4601797659758</v>
       </c>
       <c r="C35" t="n">
-        <v>1155.360683429091</v>
+        <v>916.4601797659758</v>
       </c>
       <c r="D35" t="n">
-        <v>1155.360683429091</v>
+        <v>916.4601797659758</v>
       </c>
       <c r="E35" t="n">
-        <v>1155.360683429091</v>
+        <v>502.1199642828725</v>
       </c>
       <c r="F35" t="n">
-        <v>734.3302713827787</v>
+        <v>81.08955223656005</v>
       </c>
       <c r="G35" t="n">
-        <v>327.7588696812414</v>
+        <v>81.08955223656005</v>
       </c>
       <c r="H35" t="n">
-        <v>38.93954424562321</v>
+        <v>35.74099050576837</v>
       </c>
       <c r="I35" t="n">
         <v>35.74099050576837</v>
       </c>
       <c r="J35" t="n">
-        <v>142.5703854689897</v>
+        <v>142.5703854689896</v>
       </c>
       <c r="K35" t="n">
-        <v>323.2290557446587</v>
+        <v>323.229055744659</v>
       </c>
       <c r="L35" t="n">
-        <v>562.2973247064782</v>
+        <v>562.2973247064785</v>
       </c>
       <c r="M35" t="n">
-        <v>841.132959615297</v>
+        <v>841.1329596152971</v>
       </c>
       <c r="N35" t="n">
         <v>1126.349039004049</v>
       </c>
       <c r="O35" t="n">
-        <v>1390.269714189817</v>
+        <v>1390.269714189818</v>
       </c>
       <c r="P35" t="n">
         <v>1601.546999092373</v>
@@ -6967,22 +6967,22 @@
         <v>1787.049525288418</v>
       </c>
       <c r="T35" t="n">
-        <v>1787.049525288418</v>
+        <v>1574.284793965925</v>
       </c>
       <c r="U35" t="n">
-        <v>1787.049525288418</v>
+        <v>1317.396852817886</v>
       </c>
       <c r="V35" t="n">
-        <v>1787.049525288418</v>
+        <v>1317.396852817886</v>
       </c>
       <c r="W35" t="n">
-        <v>1787.049525288418</v>
+        <v>1317.396852817886</v>
       </c>
       <c r="X35" t="n">
-        <v>1565.581863093581</v>
+        <v>1317.396852817886</v>
       </c>
       <c r="Y35" t="n">
-        <v>1565.581863093581</v>
+        <v>916.4601797659758</v>
       </c>
     </row>
     <row r="36">
@@ -6992,22 +6992,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>445.5543329492895</v>
+        <v>452.0709741391353</v>
       </c>
       <c r="C36" t="n">
-        <v>311.5592616982352</v>
+        <v>318.075902888081</v>
       </c>
       <c r="D36" t="n">
-        <v>194.6621039176276</v>
+        <v>201.1787451074734</v>
       </c>
       <c r="E36" t="n">
-        <v>74.16928790995556</v>
+        <v>201.1787451074734</v>
       </c>
       <c r="F36" t="n">
-        <v>35.74099050576837</v>
+        <v>201.1787451074734</v>
       </c>
       <c r="G36" t="n">
-        <v>35.74099050576837</v>
+        <v>95.34266624856059</v>
       </c>
       <c r="H36" t="n">
         <v>35.74099050576837</v>
@@ -7016,52 +7016,52 @@
         <v>54.34778796170226</v>
       </c>
       <c r="J36" t="n">
-        <v>110.3534157295929</v>
+        <v>354.0218197042261</v>
       </c>
       <c r="K36" t="n">
-        <v>237.7286580436575</v>
+        <v>481.3970620182907</v>
       </c>
       <c r="L36" t="n">
-        <v>427.7610195839797</v>
+        <v>671.4294235586129</v>
       </c>
       <c r="M36" t="n">
-        <v>657.3593538638702</v>
+        <v>901.0277578385035</v>
       </c>
       <c r="N36" t="n">
-        <v>898.869974051861</v>
+        <v>1142.538378026494</v>
       </c>
       <c r="O36" t="n">
-        <v>1110.805991538928</v>
+        <v>1354.474395513562</v>
       </c>
       <c r="P36" t="n">
-        <v>1273.073438353126</v>
+        <v>1516.74184232776</v>
       </c>
       <c r="Q36" t="n">
-        <v>1687.264539063037</v>
+        <v>1775.234255540018</v>
       </c>
       <c r="R36" t="n">
         <v>1787.049525288418</v>
       </c>
       <c r="S36" t="n">
-        <v>1700.495187579392</v>
+        <v>1700.495187579393</v>
       </c>
       <c r="T36" t="n">
-        <v>1545.804889936496</v>
+        <v>1545.804889936497</v>
       </c>
       <c r="U36" t="n">
-        <v>1348.530002352791</v>
+        <v>1355.046643542637</v>
       </c>
       <c r="V36" t="n">
-        <v>1134.818475345824</v>
+        <v>1141.33511653567</v>
       </c>
       <c r="W36" t="n">
-        <v>921.5853070821532</v>
+        <v>928.1019482719992</v>
       </c>
       <c r="X36" t="n">
-        <v>745.2593252210461</v>
+        <v>751.7759664108919</v>
       </c>
       <c r="Y36" t="n">
-        <v>585.8573655848761</v>
+        <v>592.3740067747219</v>
       </c>
     </row>
     <row r="37">
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1086.40989498774</v>
+        <v>477.5900173035652</v>
       </c>
       <c r="C37" t="n">
-        <v>915.3165225494567</v>
+        <v>306.4966448652817</v>
       </c>
       <c r="D37" t="n">
-        <v>755.8218778723667</v>
+        <v>306.4966448652817</v>
       </c>
       <c r="E37" t="n">
-        <v>594.9110627406862</v>
+        <v>306.4966448652817</v>
       </c>
       <c r="F37" t="n">
-        <v>430.2799368512775</v>
+        <v>141.8655189758729</v>
       </c>
       <c r="G37" t="n">
-        <v>263.9970489706581</v>
+        <v>35.74099050576837</v>
       </c>
       <c r="H37" t="n">
-        <v>122.991576717685</v>
+        <v>35.74099050576837</v>
       </c>
       <c r="I37" t="n">
         <v>35.74099050576837</v>
@@ -7098,49 +7098,49 @@
         <v>51.86344281542365</v>
       </c>
       <c r="K37" t="n">
-        <v>238.3123127249809</v>
+        <v>316.585165719259</v>
       </c>
       <c r="L37" t="n">
-        <v>325.209197607252</v>
+        <v>717.4611618365532</v>
       </c>
       <c r="M37" t="n">
-        <v>763.1157330083308</v>
+        <v>1155.367697237632</v>
       </c>
       <c r="N37" t="n">
-        <v>1189.06260844576</v>
+        <v>1249.280271227476</v>
       </c>
       <c r="O37" t="n">
-        <v>1582.654029123054</v>
+        <v>1448.030505855774</v>
       </c>
       <c r="P37" t="n">
-        <v>1642.118498692661</v>
+        <v>1768.392458898498</v>
       </c>
       <c r="Q37" t="n">
         <v>1787.049525288418</v>
       </c>
       <c r="R37" t="n">
-        <v>1745.279268752168</v>
+        <v>1787.049525288418</v>
       </c>
       <c r="S37" t="n">
-        <v>1575.748442655586</v>
+        <v>1787.049525288418</v>
       </c>
       <c r="T37" t="n">
-        <v>1340.333580915047</v>
+        <v>1551.634663547879</v>
       </c>
       <c r="U37" t="n">
-        <v>1340.333580915047</v>
+        <v>1268.889288995485</v>
       </c>
       <c r="V37" t="n">
-        <v>1340.333580915047</v>
+        <v>995.0035439350074</v>
       </c>
       <c r="W37" t="n">
-        <v>1340.333580915047</v>
+        <v>715.9338794438818</v>
       </c>
       <c r="X37" t="n">
-        <v>1340.333580915047</v>
+        <v>477.5900173035652</v>
       </c>
       <c r="Y37" t="n">
-        <v>1274.109601381785</v>
+        <v>477.5900173035652</v>
       </c>
     </row>
     <row r="38">
@@ -7150,40 +7150,40 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1787.049525288418</v>
+        <v>731.1317176429238</v>
       </c>
       <c r="C38" t="n">
-        <v>1787.049525288418</v>
+        <v>731.1317176429238</v>
       </c>
       <c r="D38" t="n">
-        <v>1569.700898912195</v>
+        <v>731.1317176429238</v>
       </c>
       <c r="E38" t="n">
-        <v>1155.360683429091</v>
+        <v>731.1317176429238</v>
       </c>
       <c r="F38" t="n">
-        <v>734.3302713827787</v>
+        <v>731.1317176429238</v>
       </c>
       <c r="G38" t="n">
-        <v>327.7588696812414</v>
+        <v>324.5603159413865</v>
       </c>
       <c r="H38" t="n">
-        <v>38.93954424562322</v>
+        <v>35.74099050576837</v>
       </c>
       <c r="I38" t="n">
         <v>35.74099050576837</v>
       </c>
       <c r="J38" t="n">
-        <v>142.5703854689897</v>
+        <v>142.5703854689896</v>
       </c>
       <c r="K38" t="n">
-        <v>323.2290557446587</v>
+        <v>323.2290557446586</v>
       </c>
       <c r="L38" t="n">
-        <v>562.2973247064782</v>
+        <v>562.2973247064781</v>
       </c>
       <c r="M38" t="n">
-        <v>841.132959615297</v>
+        <v>841.1329596152968</v>
       </c>
       <c r="N38" t="n">
         <v>1126.349039004049</v>
@@ -7201,25 +7201,25 @@
         <v>1787.049525288418</v>
       </c>
       <c r="S38" t="n">
-        <v>1787.049525288418</v>
+        <v>1772.423357486842</v>
       </c>
       <c r="T38" t="n">
-        <v>1787.049525288418</v>
+        <v>1772.423357486842</v>
       </c>
       <c r="U38" t="n">
-        <v>1787.049525288418</v>
+        <v>1515.535416338803</v>
       </c>
       <c r="V38" t="n">
-        <v>1787.049525288418</v>
+        <v>1515.535416338803</v>
       </c>
       <c r="W38" t="n">
-        <v>1787.049525288418</v>
+        <v>1131.775115473971</v>
       </c>
       <c r="X38" t="n">
-        <v>1787.049525288418</v>
+        <v>731.1317176429238</v>
       </c>
       <c r="Y38" t="n">
-        <v>1787.049525288418</v>
+        <v>731.1317176429238</v>
       </c>
     </row>
     <row r="39">
@@ -7229,22 +7229,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>445.5543329492895</v>
+        <v>575.6875911053899</v>
       </c>
       <c r="C39" t="n">
-        <v>311.5592616982352</v>
+        <v>441.6925198543356</v>
       </c>
       <c r="D39" t="n">
-        <v>194.6621039176276</v>
+        <v>324.795362073728</v>
       </c>
       <c r="E39" t="n">
-        <v>74.16928790995556</v>
+        <v>204.302546066056</v>
       </c>
       <c r="F39" t="n">
-        <v>35.74099050576837</v>
+        <v>95.34266624856059</v>
       </c>
       <c r="G39" t="n">
-        <v>35.74099050576837</v>
+        <v>95.34266624856059</v>
       </c>
       <c r="H39" t="n">
         <v>35.74099050576837</v>
@@ -7253,52 +7253,52 @@
         <v>54.34778796170226</v>
       </c>
       <c r="J39" t="n">
-        <v>110.3534157295929</v>
+        <v>354.0218197042261</v>
       </c>
       <c r="K39" t="n">
-        <v>552.6481732384764</v>
+        <v>481.3970620182907</v>
       </c>
       <c r="L39" t="n">
-        <v>841.6676203895087</v>
+        <v>671.4294235586129</v>
       </c>
       <c r="M39" t="n">
-        <v>1071.265954669399</v>
+        <v>901.0277578385035</v>
       </c>
       <c r="N39" t="n">
-        <v>1312.77657485739</v>
+        <v>1142.538378026494</v>
       </c>
       <c r="O39" t="n">
-        <v>1524.712592344457</v>
+        <v>1354.474395513562</v>
       </c>
       <c r="P39" t="n">
-        <v>1686.980039158655</v>
+        <v>1516.74184232776</v>
       </c>
       <c r="Q39" t="n">
-        <v>1775.234255540018</v>
+        <v>1687.264539063037</v>
       </c>
       <c r="R39" t="n">
         <v>1787.049525288418</v>
       </c>
       <c r="S39" t="n">
-        <v>1700.495187579392</v>
+        <v>1700.495187579393</v>
       </c>
       <c r="T39" t="n">
-        <v>1545.804889936496</v>
+        <v>1545.804889936497</v>
       </c>
       <c r="U39" t="n">
-        <v>1348.530002352791</v>
+        <v>1478.663260508891</v>
       </c>
       <c r="V39" t="n">
-        <v>1134.818475345824</v>
+        <v>1264.951733501925</v>
       </c>
       <c r="W39" t="n">
-        <v>921.5853070821532</v>
+        <v>1051.718565238254</v>
       </c>
       <c r="X39" t="n">
-        <v>745.2593252210461</v>
+        <v>875.3925833771465</v>
       </c>
       <c r="Y39" t="n">
-        <v>585.8573655848761</v>
+        <v>715.9906237409765</v>
       </c>
     </row>
     <row r="40">
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>263.9970489706581</v>
+        <v>778.5185418715275</v>
       </c>
       <c r="C40" t="n">
-        <v>263.9970489706581</v>
+        <v>778.5185418715275</v>
       </c>
       <c r="D40" t="n">
-        <v>263.9970489706581</v>
+        <v>619.0238971944375</v>
       </c>
       <c r="E40" t="n">
-        <v>263.9970489706581</v>
+        <v>458.113082062757</v>
       </c>
       <c r="F40" t="n">
-        <v>263.9970489706581</v>
+        <v>293.4819561733482</v>
       </c>
       <c r="G40" t="n">
-        <v>263.9970489706581</v>
+        <v>127.1990682927288</v>
       </c>
       <c r="H40" t="n">
-        <v>122.991576717685</v>
+        <v>35.74099050576837</v>
       </c>
       <c r="I40" t="n">
         <v>35.74099050576837</v>
@@ -7338,19 +7338,19 @@
         <v>110.3049721335449</v>
       </c>
       <c r="L40" t="n">
-        <v>325.209197607252</v>
+        <v>451.4831578130892</v>
       </c>
       <c r="M40" t="n">
-        <v>763.1157330083308</v>
+        <v>889.3896932141681</v>
       </c>
       <c r="N40" t="n">
-        <v>1189.06260844576</v>
+        <v>1315.336568651598</v>
       </c>
       <c r="O40" t="n">
-        <v>1582.654029123054</v>
+        <v>1708.927989328892</v>
       </c>
       <c r="P40" t="n">
-        <v>1642.118498692661</v>
+        <v>1768.392458898498</v>
       </c>
       <c r="Q40" t="n">
         <v>1787.049525288418</v>
@@ -7368,16 +7368,16 @@
         <v>1057.588206362653</v>
       </c>
       <c r="V40" t="n">
-        <v>783.7024613021749</v>
+        <v>1057.588206362653</v>
       </c>
       <c r="W40" t="n">
-        <v>504.6327968110449</v>
+        <v>778.5185418715275</v>
       </c>
       <c r="X40" t="n">
-        <v>266.2889346707283</v>
+        <v>778.5185418715275</v>
       </c>
       <c r="Y40" t="n">
-        <v>263.9970489706581</v>
+        <v>778.5185418715275</v>
       </c>
     </row>
     <row r="41">
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1386.406127457371</v>
+        <v>871.1116180351842</v>
       </c>
       <c r="C41" t="n">
-        <v>1386.406127457371</v>
+        <v>871.1116180351842</v>
       </c>
       <c r="D41" t="n">
-        <v>1386.406127457371</v>
+        <v>871.1116180351842</v>
       </c>
       <c r="E41" t="n">
-        <v>972.0659119742672</v>
+        <v>456.7714025520808</v>
       </c>
       <c r="F41" t="n">
-        <v>551.0354999279548</v>
+        <v>35.74099050576837</v>
       </c>
       <c r="G41" t="n">
-        <v>324.5603159413865</v>
+        <v>35.74099050576837</v>
       </c>
       <c r="H41" t="n">
         <v>35.74099050576837</v>
@@ -7411,10 +7411,10 @@
         <v>35.74099050576837</v>
       </c>
       <c r="J41" t="n">
-        <v>142.5703854689898</v>
+        <v>142.5703854689897</v>
       </c>
       <c r="K41" t="n">
-        <v>323.2290557446588</v>
+        <v>323.2290557446587</v>
       </c>
       <c r="L41" t="n">
         <v>562.2973247064783</v>
@@ -7426,7 +7426,7 @@
         <v>1126.349039004049</v>
       </c>
       <c r="O41" t="n">
-        <v>1390.269714189817</v>
+        <v>1390.269714189818</v>
       </c>
       <c r="P41" t="n">
         <v>1601.546999092373</v>
@@ -7441,22 +7441,22 @@
         <v>1787.049525288418</v>
       </c>
       <c r="T41" t="n">
-        <v>1787.049525288418</v>
+        <v>1682.269470751583</v>
       </c>
       <c r="U41" t="n">
-        <v>1787.049525288418</v>
+        <v>1682.269470751583</v>
       </c>
       <c r="V41" t="n">
-        <v>1787.049525288418</v>
+        <v>1682.269470751583</v>
       </c>
       <c r="W41" t="n">
-        <v>1787.049525288418</v>
+        <v>1682.269470751583</v>
       </c>
       <c r="X41" t="n">
-        <v>1386.406127457371</v>
+        <v>1682.269470751583</v>
       </c>
       <c r="Y41" t="n">
-        <v>1386.406127457371</v>
+        <v>1281.332797699674</v>
       </c>
     </row>
     <row r="42">
@@ -7466,49 +7466,49 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>681.5236699643067</v>
+        <v>445.5543329492897</v>
       </c>
       <c r="C42" t="n">
-        <v>547.5285987132524</v>
+        <v>311.5592616982354</v>
       </c>
       <c r="D42" t="n">
-        <v>430.6314409326449</v>
+        <v>194.6621039176278</v>
       </c>
       <c r="E42" t="n">
-        <v>310.1386249249728</v>
+        <v>194.6621039176278</v>
       </c>
       <c r="F42" t="n">
-        <v>201.1787451074774</v>
+        <v>194.6621039176278</v>
       </c>
       <c r="G42" t="n">
-        <v>95.34266624856456</v>
+        <v>95.34266624856059</v>
       </c>
       <c r="H42" t="n">
         <v>35.74099050576837</v>
       </c>
       <c r="I42" t="n">
-        <v>35.74099050576837</v>
+        <v>54.34778796170226</v>
       </c>
       <c r="J42" t="n">
-        <v>335.4150222482922</v>
+        <v>354.0218197042261</v>
       </c>
       <c r="K42" t="n">
-        <v>563.6655423722052</v>
+        <v>481.3970620182907</v>
       </c>
       <c r="L42" t="n">
-        <v>753.6979039125274</v>
+        <v>671.4294235586129</v>
       </c>
       <c r="M42" t="n">
-        <v>983.2962381924179</v>
+        <v>901.0277578385035</v>
       </c>
       <c r="N42" t="n">
-        <v>1224.806858380409</v>
+        <v>1142.538378026494</v>
       </c>
       <c r="O42" t="n">
-        <v>1436.742875867476</v>
+        <v>1354.474395513562</v>
       </c>
       <c r="P42" t="n">
-        <v>1599.010322681674</v>
+        <v>1516.74184232776</v>
       </c>
       <c r="Q42" t="n">
         <v>1687.264539063037</v>
@@ -7517,25 +7517,25 @@
         <v>1787.049525288418</v>
       </c>
       <c r="S42" t="n">
-        <v>1787.049525288418</v>
+        <v>1700.495187579393</v>
       </c>
       <c r="T42" t="n">
-        <v>1781.774226951514</v>
+        <v>1545.804889936497</v>
       </c>
       <c r="U42" t="n">
-        <v>1584.499339367808</v>
+        <v>1348.530002352791</v>
       </c>
       <c r="V42" t="n">
-        <v>1370.787812360842</v>
+        <v>1134.818475345825</v>
       </c>
       <c r="W42" t="n">
-        <v>1157.55464409717</v>
+        <v>921.5853070821535</v>
       </c>
       <c r="X42" t="n">
-        <v>981.2286622360633</v>
+        <v>745.2593252210463</v>
       </c>
       <c r="Y42" t="n">
-        <v>821.8267025998933</v>
+        <v>585.8573655848763</v>
       </c>
     </row>
     <row r="43">
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>406.8089392170567</v>
+        <v>202.0238783863878</v>
       </c>
       <c r="C43" t="n">
-        <v>235.7155667787732</v>
+        <v>202.0238783863878</v>
       </c>
       <c r="D43" t="n">
-        <v>76.22092210168324</v>
+        <v>202.0238783863878</v>
       </c>
       <c r="E43" t="n">
-        <v>35.74099050576837</v>
+        <v>202.0238783863878</v>
       </c>
       <c r="F43" t="n">
-        <v>35.74099050576837</v>
+        <v>202.0238783863878</v>
       </c>
       <c r="G43" t="n">
         <v>35.74099050576837</v>
@@ -7569,22 +7569,22 @@
         <v>35.74099050576837</v>
       </c>
       <c r="J43" t="n">
-        <v>116.86480644676</v>
+        <v>51.86344281542365</v>
       </c>
       <c r="K43" t="n">
-        <v>381.5865293505954</v>
+        <v>238.3123127249809</v>
       </c>
       <c r="L43" t="n">
-        <v>711.4207750004598</v>
+        <v>325.209197607252</v>
       </c>
       <c r="M43" t="n">
-        <v>1149.327310401539</v>
+        <v>763.1157330083308</v>
       </c>
       <c r="N43" t="n">
-        <v>1243.239884391383</v>
+        <v>1189.06260844576</v>
       </c>
       <c r="O43" t="n">
-        <v>1321.756545649936</v>
+        <v>1582.654029123054</v>
       </c>
       <c r="P43" t="n">
         <v>1642.118498692661</v>
@@ -7596,25 +7596,25 @@
         <v>1745.279268752168</v>
       </c>
       <c r="S43" t="n">
-        <v>1575.748442655586</v>
+        <v>1736.219084982476</v>
       </c>
       <c r="T43" t="n">
-        <v>1340.333580915047</v>
+        <v>1500.804223241937</v>
       </c>
       <c r="U43" t="n">
-        <v>1057.588206362653</v>
+        <v>1218.058848689543</v>
       </c>
       <c r="V43" t="n">
-        <v>1057.588206362653</v>
+        <v>944.1731036290653</v>
       </c>
       <c r="W43" t="n">
-        <v>1057.588206362653</v>
+        <v>665.1034391379396</v>
       </c>
       <c r="X43" t="n">
-        <v>819.2443442223364</v>
+        <v>426.7595769976231</v>
       </c>
       <c r="Y43" t="n">
-        <v>594.5086456111011</v>
+        <v>202.0238783863878</v>
       </c>
     </row>
     <row r="44">
@@ -7624,40 +7624,40 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>35.74099050576837</v>
+        <v>1280.881573476576</v>
       </c>
       <c r="C44" t="n">
-        <v>35.74099050576837</v>
+        <v>1280.881573476576</v>
       </c>
       <c r="D44" t="n">
-        <v>35.74099050576837</v>
+        <v>1280.881573476576</v>
       </c>
       <c r="E44" t="n">
-        <v>35.74099050576837</v>
+        <v>866.541357993473</v>
       </c>
       <c r="F44" t="n">
-        <v>35.74099050576837</v>
+        <v>445.5109459471605</v>
       </c>
       <c r="G44" t="n">
-        <v>35.74099050576837</v>
+        <v>38.93954424562315</v>
       </c>
       <c r="H44" t="n">
-        <v>35.74099050576837</v>
+        <v>38.93954424562315</v>
       </c>
       <c r="I44" t="n">
         <v>35.74099050576837</v>
       </c>
       <c r="J44" t="n">
-        <v>142.5703854689897</v>
+        <v>142.5703854689898</v>
       </c>
       <c r="K44" t="n">
-        <v>323.2290557446587</v>
+        <v>323.2290557446588</v>
       </c>
       <c r="L44" t="n">
-        <v>562.2973247064782</v>
+        <v>562.2973247064783</v>
       </c>
       <c r="M44" t="n">
-        <v>841.132959615297</v>
+        <v>841.1329596152971</v>
       </c>
       <c r="N44" t="n">
         <v>1126.349039004049</v>
@@ -7675,25 +7675,25 @@
         <v>1787.049525288418</v>
       </c>
       <c r="S44" t="n">
-        <v>1700.918407900825</v>
+        <v>1787.049525288418</v>
       </c>
       <c r="T44" t="n">
-        <v>1488.153676578332</v>
+        <v>1787.049525288418</v>
       </c>
       <c r="U44" t="n">
-        <v>1231.265735430292</v>
+        <v>1691.102753141066</v>
       </c>
       <c r="V44" t="n">
-        <v>881.428180766773</v>
+        <v>1691.102753141066</v>
       </c>
       <c r="W44" t="n">
-        <v>497.6678799019416</v>
+        <v>1691.102753141066</v>
       </c>
       <c r="X44" t="n">
-        <v>97.02448207089407</v>
+        <v>1691.102753141066</v>
       </c>
       <c r="Y44" t="n">
-        <v>35.74099050576837</v>
+        <v>1691.102753141066</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>681.5236699643028</v>
+        <v>445.5543329492895</v>
       </c>
       <c r="C45" t="n">
-        <v>547.5285987132485</v>
+        <v>311.5592616982352</v>
       </c>
       <c r="D45" t="n">
-        <v>430.6314409326409</v>
+        <v>194.6621039176276</v>
       </c>
       <c r="E45" t="n">
-        <v>310.1386249249689</v>
+        <v>144.7008703232638</v>
       </c>
       <c r="F45" t="n">
-        <v>201.1787451074734</v>
+        <v>35.74099050576837</v>
       </c>
       <c r="G45" t="n">
-        <v>95.34266624856059</v>
+        <v>35.74099050576837</v>
       </c>
       <c r="H45" t="n">
         <v>35.74099050576837</v>
       </c>
       <c r="I45" t="n">
-        <v>35.74099050576837</v>
+        <v>54.34778796170226</v>
       </c>
       <c r="J45" t="n">
-        <v>335.4150222482922</v>
+        <v>354.0218197042261</v>
       </c>
       <c r="K45" t="n">
-        <v>462.7902645623569</v>
+        <v>563.6655423722052</v>
       </c>
       <c r="L45" t="n">
-        <v>652.8226261026791</v>
+        <v>753.6979039125274</v>
       </c>
       <c r="M45" t="n">
-        <v>882.4209603825697</v>
+        <v>983.2962381924179</v>
       </c>
       <c r="N45" t="n">
-        <v>1123.931580570561</v>
+        <v>1224.806858380409</v>
       </c>
       <c r="O45" t="n">
-        <v>1335.867598057628</v>
+        <v>1436.742875867476</v>
       </c>
       <c r="P45" t="n">
-        <v>1498.135044871826</v>
+        <v>1599.010322681674</v>
       </c>
       <c r="Q45" t="n">
-        <v>1775.234255540018</v>
+        <v>1687.264539063037</v>
       </c>
       <c r="R45" t="n">
         <v>1787.049525288418</v>
       </c>
       <c r="S45" t="n">
-        <v>1787.049525288418</v>
+        <v>1700.495187579392</v>
       </c>
       <c r="T45" t="n">
-        <v>1781.774226951514</v>
+        <v>1545.804889936496</v>
       </c>
       <c r="U45" t="n">
-        <v>1584.499339367804</v>
+        <v>1348.530002352791</v>
       </c>
       <c r="V45" t="n">
-        <v>1370.787812360838</v>
+        <v>1134.818475345824</v>
       </c>
       <c r="W45" t="n">
-        <v>1157.554644097167</v>
+        <v>921.5853070821532</v>
       </c>
       <c r="X45" t="n">
-        <v>981.2286622360594</v>
+        <v>745.2593252210461</v>
       </c>
       <c r="Y45" t="n">
-        <v>821.8267025998895</v>
+        <v>585.8573655848761</v>
       </c>
     </row>
     <row r="46">
@@ -7782,46 +7782,46 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1058.958118686411</v>
+        <v>362.9346935180683</v>
       </c>
       <c r="C46" t="n">
-        <v>887.8647462481272</v>
+        <v>362.9346935180683</v>
       </c>
       <c r="D46" t="n">
-        <v>728.3701015710371</v>
+        <v>362.9346935180683</v>
       </c>
       <c r="E46" t="n">
-        <v>567.4592864393567</v>
+        <v>202.0238783863878</v>
       </c>
       <c r="F46" t="n">
-        <v>402.8281605499479</v>
+        <v>202.0238783863878</v>
       </c>
       <c r="G46" t="n">
-        <v>236.5452726693285</v>
+        <v>35.74099050576837</v>
       </c>
       <c r="H46" t="n">
-        <v>95.53980041635546</v>
+        <v>35.74099050576837</v>
       </c>
       <c r="I46" t="n">
         <v>35.74099050576837</v>
       </c>
       <c r="J46" t="n">
-        <v>51.86344281542365</v>
+        <v>116.86480644676</v>
       </c>
       <c r="K46" t="n">
-        <v>316.585165719259</v>
+        <v>269.2995510042433</v>
       </c>
       <c r="L46" t="n">
-        <v>717.4611618365532</v>
+        <v>670.1755471215374</v>
       </c>
       <c r="M46" t="n">
-        <v>834.2525509827983</v>
+        <v>763.1157330083308</v>
       </c>
       <c r="N46" t="n">
-        <v>928.1651249726423</v>
+        <v>1189.06260844576</v>
       </c>
       <c r="O46" t="n">
-        <v>1321.756545649936</v>
+        <v>1582.654029123054</v>
       </c>
       <c r="P46" t="n">
         <v>1642.118498692661</v>
@@ -7836,22 +7836,22 @@
         <v>1745.279268752168</v>
       </c>
       <c r="T46" t="n">
-        <v>1745.279268752168</v>
+        <v>1509.864407011629</v>
       </c>
       <c r="U46" t="n">
-        <v>1745.279268752168</v>
+        <v>1227.119032459235</v>
       </c>
       <c r="V46" t="n">
-        <v>1471.39352369169</v>
+        <v>953.2332873987573</v>
       </c>
       <c r="W46" t="n">
-        <v>1471.39352369169</v>
+        <v>826.0142542696203</v>
       </c>
       <c r="X46" t="n">
-        <v>1471.39352369169</v>
+        <v>587.6703921293037</v>
       </c>
       <c r="Y46" t="n">
-        <v>1246.657825080455</v>
+        <v>362.9346935180683</v>
       </c>
     </row>
   </sheetData>
@@ -8768,7 +8768,7 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -8786,10 +8786,10 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>282.8558693885714</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>46.37330670087078</v>
+        <v>83.09947510496431</v>
       </c>
       <c r="R12" t="n">
         <v>88.85829947169823</v>
@@ -8856,19 +8856,19 @@
         <v>317.1506174091142</v>
       </c>
       <c r="M13" t="n">
-        <v>348.4508580952379</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>319.3229224358845</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>318.2573327462026</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>263.5328115890082</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>85.98363619591196</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -9002,16 +9002,16 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0.970713529054045</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K15" t="n">
-        <v>318.100520398807</v>
+        <v>171.9577745766622</v>
       </c>
       <c r="L15" t="n">
-        <v>118.7817000673176</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9084,13 +9084,13 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>65.65794306195595</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>256.849798785125</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
         <v>348.4508580952379</v>
@@ -9102,10 +9102,10 @@
         <v>318.2573327462026</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>63.64240096979781</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>127.5494547533709</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9242,10 +9242,10 @@
         <v>0.970713529054045</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>79.26551225650738</v>
       </c>
       <c r="K18" t="n">
-        <v>318.1005203988069</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9260,10 +9260,10 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>118.7817000673172</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>357.6167082096171</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -9330,19 +9330,19 @@
         <v>317.1506174091142</v>
       </c>
       <c r="M19" t="n">
-        <v>348.4508580952379</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>191.7734676825133</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>318.2573327462026</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>263.5328115890082</v>
       </c>
       <c r="Q19" t="n">
-        <v>127.5494547533709</v>
+        <v>85.98363619591196</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9476,13 +9476,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0.970713529054045</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>318.100520398807</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9491,16 +9491,16 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>79.26551225650735</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>99.98695516233386</v>
       </c>
       <c r="Q21" t="n">
-        <v>357.6167082096171</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -9558,28 +9558,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>65.65794306195595</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>208.3638319047618</v>
+        <v>24.61722788224013</v>
       </c>
       <c r="L22" t="n">
         <v>317.1506174091142</v>
       </c>
       <c r="M22" t="n">
-        <v>276.6915141887434</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>335.3881832803894</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>318.2573327462026</v>
       </c>
       <c r="P22" t="n">
         <v>263.5328115890082</v>
       </c>
       <c r="Q22" t="n">
-        <v>127.5494547533709</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9637,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>110.0744140796688</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -9658,7 +9658,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>110.0744140796685</v>
       </c>
       <c r="R23" t="n">
         <v>128.2784515920617</v>
@@ -9716,10 +9716,10 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J24" t="n">
-        <v>189.2852619197604</v>
+        <v>157.5111761007955</v>
       </c>
       <c r="K24" t="n">
-        <v>378.2967798414124</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9737,7 +9737,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R24" t="n">
         <v>88.85829947169823</v>
@@ -9801,16 +9801,16 @@
         <v>208.3638319047618</v>
       </c>
       <c r="L25" t="n">
-        <v>317.1506174091142</v>
+        <v>148.3559558939608</v>
       </c>
       <c r="M25" t="n">
-        <v>196.7870471142714</v>
+        <v>348.4508580952379</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>335.3881832803894</v>
       </c>
       <c r="O25" t="n">
-        <v>318.2573327462026</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
         <v>263.5328115890082</v>
@@ -9950,16 +9950,16 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0.970713529054045</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>157.5111761007959</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>315.0067604209502</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9968,16 +9968,16 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>17.17619688572785</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>343.052128831177</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10035,10 +10035,10 @@
         <v>65.65794306195595</v>
       </c>
       <c r="K28" t="n">
-        <v>112.3941039857855</v>
+        <v>208.3638319047618</v>
       </c>
       <c r="L28" t="n">
-        <v>317.1506174091142</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
         <v>348.4508580952379</v>
@@ -10050,10 +10050,10 @@
         <v>318.2573327462026</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>93.63143473676658</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>127.5494547533709</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10111,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>238.3528656717309</v>
+        <v>110.0744140796691</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -10135,7 +10135,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10187,13 +10187,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>5.027164401258491</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>157.5111761007959</v>
       </c>
       <c r="K30" t="n">
-        <v>378.2967798414124</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10205,16 +10205,16 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>292.8818554242381</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10272,13 +10272,13 @@
         <v>65.65794306195595</v>
       </c>
       <c r="K31" t="n">
-        <v>208.3638319047618</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>166.0119098058916</v>
       </c>
       <c r="M31" t="n">
-        <v>178.5494812429967</v>
+        <v>348.4508580952379</v>
       </c>
       <c r="N31" t="n">
         <v>335.3881832803894</v>
@@ -10290,7 +10290,7 @@
         <v>263.5328115890082</v>
       </c>
       <c r="Q31" t="n">
-        <v>127.5494547533709</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10351,7 +10351,7 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>110.0744140796691</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -10366,13 +10366,13 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>238.3528656717306</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>128.2784515920617</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10427,13 +10427,13 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J33" t="n">
-        <v>48.55172538768289</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>315.0067604209502</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10442,13 +10442,13 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>292.8818554242381</v>
+        <v>0.2397745880155924</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -10512,22 +10512,22 @@
         <v>208.3638319047618</v>
       </c>
       <c r="L34" t="n">
-        <v>293.0362611815193</v>
+        <v>93.63143473676649</v>
       </c>
       <c r="M34" t="n">
         <v>348.4508580952379</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>335.3881832803894</v>
       </c>
       <c r="O34" t="n">
         <v>318.2573327462026</v>
       </c>
       <c r="P34" t="n">
-        <v>263.5328115890082</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>127.5494547533709</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10664,7 +10664,7 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -10685,10 +10685,10 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>329.2291760894421</v>
+        <v>171.9577745766627</v>
       </c>
       <c r="R36" t="n">
-        <v>88.85829947169823</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10746,25 +10746,25 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>129.3003440317536</v>
+        <v>208.3638319047618</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>317.1506174091142</v>
       </c>
       <c r="M37" t="n">
         <v>348.4508580952379</v>
       </c>
       <c r="N37" t="n">
-        <v>335.3881832803894</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>318.2573327462026</v>
+        <v>121.4480539088325</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>263.5328115890082</v>
       </c>
       <c r="Q37" t="n">
-        <v>127.5494547533709</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10901,13 +10901,13 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K39" t="n">
-        <v>318.1005203988069</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>99.98695516233346</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10922,10 +10922,10 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>83.09947510496431</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -10986,7 +10986,7 @@
         <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>129.3003440317536</v>
+        <v>256.8497987851246</v>
       </c>
       <c r="M40" t="n">
         <v>348.4508580952379</v>
@@ -11001,7 +11001,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>127.5494547533709</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11135,13 +11135,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0.970713529054045</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J42" t="n">
         <v>246.129700984478</v>
       </c>
       <c r="K42" t="n">
-        <v>101.8942200099478</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11159,7 +11159,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>83.09947510496431</v>
       </c>
       <c r="R42" t="n">
         <v>88.85829947169823</v>
@@ -11217,25 +11217,25 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>65.65794306195595</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>208.3638319047618</v>
+        <v>129.3003440317536</v>
       </c>
       <c r="L43" t="n">
-        <v>245.3912735026196</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
         <v>348.4508580952379</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>335.3881832803894</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>318.2573327462026</v>
       </c>
       <c r="P43" t="n">
-        <v>263.5328115890082</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
         <v>127.5494547533709</v>
@@ -11372,13 +11372,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0.970713529054045</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J45" t="n">
         <v>246.129700984478</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>83.09947510496411</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11396,10 +11396,10 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>190.7525194816462</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -11454,25 +11454,25 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>65.65794306195595</v>
       </c>
       <c r="K46" t="n">
-        <v>208.3638319047618</v>
+        <v>94.94264165592124</v>
       </c>
       <c r="L46" t="n">
         <v>317.1506174091142</v>
       </c>
       <c r="M46" t="n">
-        <v>24.09212450449675</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>335.3881832803894</v>
       </c>
       <c r="O46" t="n">
         <v>318.2573327462026</v>
       </c>
       <c r="P46" t="n">
-        <v>263.5328115890082</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
         <v>127.5494547533709</v>
@@ -23272,13 +23272,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G11" t="n">
-        <v>402.5056876845219</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>285.9311321812619</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>3.166568202456219</v>
+        <v>3.166568202456233</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,25 +23308,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>85.26980621371686</v>
+        <v>53.30419237452723</v>
       </c>
       <c r="T11" t="n">
-        <v>210.6370840092685</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>254.319061736559</v>
       </c>
       <c r="V11" t="n">
-        <v>192.1496655802157</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="12">
@@ -23342,7 +23342,7 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>88.91519032756315</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -23351,7 +23351,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>104.7777180703237</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
         <v>59.00565898536429</v>
@@ -23387,7 +23387,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>69.82626658917451</v>
+        <v>85.6887943319354</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
@@ -23418,22 +23418,22 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>164.6200590018132</v>
       </c>
       <c r="H13" t="n">
-        <v>139.5954175304433</v>
+        <v>110.4759319558514</v>
       </c>
       <c r="I13" t="n">
         <v>86.37808034979749</v>
@@ -23463,22 +23463,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>41.35255397088749</v>
       </c>
       <c r="S13" t="n">
         <v>167.8355178356165</v>
       </c>
       <c r="T13" t="n">
-        <v>233.0607131231338</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>279.9179208068699</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>42.29626441332948</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23494,28 +23494,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F14" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>402.5056876845219</v>
       </c>
       <c r="H14" t="n">
-        <v>285.9311321812619</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>3.166568202456233</v>
+        <v>3.166568202456219</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,13 +23545,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>85.26980621371689</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>99.60005115829418</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>254.319061736559</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>346.3391791168841</v>
@@ -23560,10 +23560,10 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X14" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>396.9273063213908</v>
+        <v>312.7460128059599</v>
       </c>
     </row>
     <row r="15">
@@ -23582,13 +23582,13 @@
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>75.80170360505447</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>38.30750493699446</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -23630,7 +23630,7 @@
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>195.3021387078687</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -23642,7 +23642,7 @@
         <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>157.8079400398083</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -23652,16 +23652,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D16" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23700,22 +23700,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>41.35255397088749</v>
+        <v>41.35255397088748</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>233.0607131231338</v>
       </c>
       <c r="U16" t="n">
-        <v>88.27748915116537</v>
+        <v>93.49200104092438</v>
       </c>
       <c r="V16" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W16" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23734,19 +23734,19 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C17" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E17" t="n">
-        <v>410.1968133282722</v>
+        <v>112.387588292951</v>
       </c>
       <c r="F17" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>402.5056876845219</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>285.9311321812619</v>
@@ -23785,22 +23785,22 @@
         <v>85.26980621371689</v>
       </c>
       <c r="T17" t="n">
-        <v>210.6370840092685</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>254.319061736559</v>
       </c>
       <c r="V17" t="n">
-        <v>40.34975944893097</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="18">
@@ -23816,19 +23816,19 @@
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>115.7281862028015</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G18" t="n">
-        <v>88.91519032756359</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>59.00565898536429</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -23861,7 +23861,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>85.6887943319354</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
@@ -23873,7 +23873,7 @@
         <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>10.01117642274099</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23907,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>139.5954175304433</v>
       </c>
       <c r="I19" t="n">
-        <v>25.26709225468864</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>41.35255397088749</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>167.8355178356165</v>
       </c>
       <c r="T19" t="n">
         <v>233.0607131231338</v>
@@ -23949,16 +23949,16 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W19" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X19" t="n">
-        <v>235.9604235189134</v>
+        <v>132.313297723783</v>
       </c>
       <c r="Y19" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23968,16 +23968,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>274.4168210715333</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D20" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E20" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>416.8201079258493</v>
@@ -23986,7 +23986,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>285.9311321812619</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>3.166568202456233</v>
@@ -24019,13 +24019,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>85.26980621371689</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>210.6370840092685</v>
       </c>
       <c r="U20" t="n">
-        <v>254.319061736559</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>346.3391791168841</v>
@@ -24034,10 +24034,10 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>101.0640155622455</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="21">
@@ -24056,16 +24056,16 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>69.82626658917491</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G21" t="n">
-        <v>104.7777180703237</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>59.00565898536429</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -24107,7 +24107,7 @@
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>125.7393626255424</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
@@ -24129,25 +24129,25 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G22" t="n">
         <v>164.6200590018132</v>
       </c>
       <c r="H22" t="n">
-        <v>139.5954175304433</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>86.37808034979749</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,19 +24174,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>41.35255397088749</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>89.48334755601512</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>233.0607131231338</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>279.9179208068699</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>155.630731387245</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="23">
@@ -24205,19 +24205,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C23" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F23" t="n">
-        <v>416.8201079258493</v>
+        <v>28.92532765633632</v>
       </c>
       <c r="G23" t="n">
         <v>402.5056876845219</v>
@@ -24226,7 +24226,7 @@
         <v>285.9311321812619</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>3.166568202456233</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24259,10 +24259,10 @@
         <v>85.26980621371689</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>210.6370840092685</v>
       </c>
       <c r="U23" t="n">
-        <v>93.59306377363397</v>
+        <v>254.319061736559</v>
       </c>
       <c r="V23" t="n">
         <v>346.3391791168841</v>
@@ -24274,7 +24274,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24366,7 +24366,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>157.8996982303191</v>
@@ -24378,13 +24378,13 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>164.6200590018132</v>
       </c>
       <c r="H25" t="n">
         <v>139.5954175304433</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>86.37808034979749</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24420,7 +24420,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>115.84138130095</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>197.4570819386596</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24445,7 +24445,7 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C26" t="n">
-        <v>406.0233447798626</v>
+        <v>151.1492273538143</v>
       </c>
       <c r="D26" t="n">
         <v>400.41929060787</v>
@@ -24454,13 +24454,13 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F26" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>402.5056876845219</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>285.9311321812619</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>3.166568202456233</v>
@@ -24496,22 +24496,22 @@
         <v>85.26980621371689</v>
       </c>
       <c r="T26" t="n">
-        <v>17.37719981333564</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>254.319061736559</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="27">
@@ -24609,16 +24609,16 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>132.8080607381075</v>
       </c>
       <c r="I28" t="n">
         <v>86.37808034979749</v>
@@ -24651,22 +24651,22 @@
         <v>41.35255397088749</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>167.8355178356165</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>279.9179208068699</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>31.54674744055853</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24682,25 +24682,25 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>400.41929060787</v>
+        <v>354.8108146461158</v>
       </c>
       <c r="E29" t="n">
-        <v>153.6001644643652</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>402.5056876845219</v>
       </c>
       <c r="H29" t="n">
         <v>285.9311321812619</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>3.166568202456233</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24733,7 +24733,7 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>210.6370840092685</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>254.319061736559</v>
@@ -24846,7 +24846,7 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E31" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>162.9848146305146</v>
@@ -24855,10 +24855,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>139.5954175304433</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>45.56904587480275</v>
+        <v>86.37808034979749</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24894,19 +24894,19 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>279.9179208068699</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>79.55724569864583</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="32">
@@ -24916,28 +24916,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E32" t="n">
-        <v>410.1968133282723</v>
+        <v>402.1379876838499</v>
       </c>
       <c r="F32" t="n">
-        <v>405.2431035400149</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G32" t="n">
         <v>402.5056876845219</v>
       </c>
       <c r="H32" t="n">
-        <v>285.9311321812619</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>3.166568202456304</v>
+        <v>3.166568202456233</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24967,19 +24967,19 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>85.26980621371696</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>210.6370840092685</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>254.3190617365591</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>379.9226978561832</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>396.636963852737</v>
@@ -25074,22 +25074,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>93.01082319341964</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>63.00608684648051</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>164.6200590018132</v>
       </c>
       <c r="H34" t="n">
         <v>139.5954175304433</v>
@@ -25125,7 +25125,7 @@
         <v>41.35255397088749</v>
       </c>
       <c r="S34" t="n">
-        <v>167.8355178356165</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25140,10 +25140,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25153,28 +25153,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C35" t="n">
         <v>406.0233447798626</v>
       </c>
       <c r="D35" t="n">
-        <v>400.4192906078701</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E35" t="n">
-        <v>410.1968133282723</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>402.5056876845219</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>241.0360560677781</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>3.166568202456233</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25204,25 +25204,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>85.26980621371696</v>
+        <v>85.26980621371689</v>
       </c>
       <c r="T35" t="n">
-        <v>210.6370840092685</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>254.3190617365591</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>346.3391791168842</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W35" t="n">
-        <v>379.9226978561832</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X35" t="n">
-        <v>177.383978279848</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y35" t="n">
-        <v>396.9273063213909</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25241,16 +25241,16 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>119.2878878475953</v>
       </c>
       <c r="F36" t="n">
-        <v>69.82626658917513</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G36" t="n">
-        <v>104.7777180703237</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>59.00565898536429</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -25289,7 +25289,7 @@
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>6.451474777947084</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -25311,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>59.55677581640971</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>139.5954175304433</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>86.37808034979749</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,28 +25359,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>41.35255397088749</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>167.8355178356165</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>279.9179208068699</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>156.9266018871935</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="38">
@@ -25396,13 +25396,13 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D38" t="n">
-        <v>185.2441504954087</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -25411,7 +25411,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>3.166568202456233</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25441,25 +25441,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>85.26980621371695</v>
+        <v>70.78990009015642</v>
       </c>
       <c r="T38" t="n">
         <v>210.6370840092685</v>
       </c>
       <c r="U38" t="n">
-        <v>254.3190617365591</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>346.3391791168842</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W38" t="n">
-        <v>379.9226978561832</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>396.9273063213909</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="39">
@@ -25481,13 +25481,13 @@
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>69.82626658917513</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
         <v>104.7777180703237</v>
       </c>
       <c r="H39" t="n">
-        <v>59.00565898536429</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -25526,7 +25526,7 @@
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>128.8319255745392</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -25554,22 +25554,22 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D40" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>164.6200590018132</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>49.05192052135249</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>86.37808034979749</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25608,16 +25608,16 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y40" t="n">
-        <v>220.2193747820534</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="41">
@@ -25627,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>406.0233447798626</v>
@@ -25642,10 +25642,10 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>178.2952555378193</v>
+        <v>402.5056876845219</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>285.9311321812619</v>
       </c>
       <c r="I41" t="n">
         <v>3.166568202456233</v>
@@ -25681,7 +25681,7 @@
         <v>85.26980621371689</v>
       </c>
       <c r="T41" t="n">
-        <v>210.6370840092685</v>
+        <v>106.9048300178018</v>
       </c>
       <c r="U41" t="n">
         <v>254.319061736559</v>
@@ -25693,10 +25693,10 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y41" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25715,13 +25715,13 @@
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>119.2878878475953</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>6.451474777947169</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -25757,10 +25757,10 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>85.6887943319354</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>147.9208493129315</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
@@ -25785,22 +25785,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E43" t="n">
-        <v>119.226574700408</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F43" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G43" t="n">
-        <v>164.6200590018132</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>139.5954175304433</v>
@@ -25836,7 +25836,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>158.8659359036212</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25845,10 +25845,10 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -25864,28 +25864,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>406.0233447798626</v>
       </c>
       <c r="D44" t="n">
-        <v>400.4192906078701</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E44" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>402.5056876845219</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>285.9311321812619</v>
       </c>
       <c r="I44" t="n">
-        <v>3.166568202456304</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,25 +25915,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>85.26980621371689</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>210.6370840092685</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>159.3317573106801</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y44" t="n">
-        <v>336.2566496719164</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="45">
@@ -25952,16 +25952,16 @@
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>69.82626658917513</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>104.7777180703237</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>59.00565898536429</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -25994,10 +25994,10 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>85.6887943319354</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>147.9208493129315</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
         <v>0</v>
@@ -26022,28 +26022,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>139.5954175304433</v>
       </c>
       <c r="I46" t="n">
-        <v>27.17725853831627</v>
+        <v>86.37808034979749</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26076,19 +26076,19 @@
         <v>167.8355178356165</v>
       </c>
       <c r="T46" t="n">
-        <v>233.0607131231338</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>279.9179208068699</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>276.2789678462144</v>
+        <v>150.3321250483688</v>
       </c>
       <c r="X46" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>375371.6588112928</v>
+        <v>375371.6588112927</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>375371.6588112928</v>
+        <v>375371.6588112927</v>
       </c>
     </row>
     <row r="7">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>426043.0635385734</v>
+        <v>426043.0635385733</v>
       </c>
     </row>
     <row r="10">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>426043.0635385733</v>
+        <v>426043.0635385734</v>
       </c>
     </row>
     <row r="13">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>375371.6588112925</v>
+        <v>375371.6588112927</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>375371.6588112924</v>
+        <v>375371.6588112927</v>
       </c>
     </row>
   </sheetData>
@@ -26316,25 +26316,25 @@
         <v>518407.7583024596</v>
       </c>
       <c r="C2" t="n">
-        <v>518407.7583024595</v>
+        <v>518407.7583024596</v>
       </c>
       <c r="D2" t="n">
         <v>518407.7583024596</v>
       </c>
       <c r="E2" t="n">
+        <v>294536.6995553116</v>
+      </c>
+      <c r="F2" t="n">
+        <v>294536.6995553116</v>
+      </c>
+      <c r="G2" t="n">
         <v>294536.6995553118</v>
       </c>
-      <c r="F2" t="n">
-        <v>294536.6995553117</v>
-      </c>
-      <c r="G2" t="n">
-        <v>294536.6995553115</v>
-      </c>
       <c r="H2" t="n">
-        <v>294536.6995553117</v>
+        <v>294536.6995553118</v>
       </c>
       <c r="I2" t="n">
-        <v>321822.3059330315</v>
+        <v>321822.3059330317</v>
       </c>
       <c r="J2" t="n">
         <v>321822.3059330317</v>
@@ -26343,19 +26343,19 @@
         <v>321822.3059330317</v>
       </c>
       <c r="L2" t="n">
-        <v>321822.3059330317</v>
+        <v>321822.3059330318</v>
       </c>
       <c r="M2" t="n">
         <v>294536.6995553117</v>
       </c>
       <c r="N2" t="n">
-        <v>294536.6995553114</v>
+        <v>294536.6995553118</v>
       </c>
       <c r="O2" t="n">
         <v>294536.6995553116</v>
       </c>
       <c r="P2" t="n">
-        <v>294536.6995553114</v>
+        <v>294536.6995553116</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>560128.3559630441</v>
+        <v>560128.355963044</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>16007.44950723708</v>
+        <v>16007.44950723706</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>96333.82383685891</v>
+        <v>96333.82383685872</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,40 +26426,40 @@
         <v>365422.9858327082</v>
       </c>
       <c r="E4" t="n">
+        <v>25996.73876523646</v>
+      </c>
+      <c r="F4" t="n">
         <v>25996.73876523645</v>
       </c>
-      <c r="F4" t="n">
-        <v>25996.73876523647</v>
-      </c>
       <c r="G4" t="n">
-        <v>25996.73876523645</v>
+        <v>25996.73876523646</v>
       </c>
       <c r="H4" t="n">
         <v>25996.73876523646</v>
       </c>
       <c r="I4" t="n">
-        <v>44318.68519655671</v>
+        <v>44318.6851965567</v>
       </c>
       <c r="J4" t="n">
         <v>44318.68519655673</v>
       </c>
       <c r="K4" t="n">
-        <v>44318.68519655674</v>
+        <v>44318.68519655673</v>
       </c>
       <c r="L4" t="n">
         <v>44318.6851965567</v>
       </c>
       <c r="M4" t="n">
-        <v>25996.73876523641</v>
+        <v>25996.73876523646</v>
       </c>
       <c r="N4" t="n">
-        <v>25996.73876523635</v>
+        <v>25996.73876523646</v>
       </c>
       <c r="O4" t="n">
-        <v>25996.73876523634</v>
+        <v>25996.73876523646</v>
       </c>
       <c r="P4" t="n">
-        <v>25996.73876523635</v>
+        <v>25996.73876523645</v>
       </c>
     </row>
     <row r="5">
@@ -26484,7 +26484,7 @@
         <v>38742.42450886573</v>
       </c>
       <c r="G5" t="n">
-        <v>38742.42450886572</v>
+        <v>38742.42450886573</v>
       </c>
       <c r="H5" t="n">
         <v>38742.42450886573</v>
@@ -26502,16 +26502,16 @@
         <v>42402.35708297614</v>
       </c>
       <c r="M5" t="n">
-        <v>38742.42450886572</v>
+        <v>38742.42450886573</v>
       </c>
       <c r="N5" t="n">
-        <v>38742.42450886572</v>
+        <v>38742.42450886573</v>
       </c>
       <c r="O5" t="n">
-        <v>38742.42450886572</v>
+        <v>38742.42450886573</v>
       </c>
       <c r="P5" t="n">
-        <v>38742.42450886572</v>
+        <v>38742.42450886573</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>119357.1724697514</v>
+        <v>119348.372784122</v>
       </c>
       <c r="C6" t="n">
-        <v>119357.1724697513</v>
+        <v>119348.372784122</v>
       </c>
       <c r="D6" t="n">
-        <v>119357.1724697514</v>
+        <v>119348.372784122</v>
       </c>
       <c r="E6" t="n">
-        <v>-330330.8196818345</v>
+        <v>-331039.2164260488</v>
       </c>
       <c r="F6" t="n">
-        <v>229797.5362812095</v>
+        <v>229089.1395369952</v>
       </c>
       <c r="G6" t="n">
-        <v>229797.5362812094</v>
+        <v>229089.1395369954</v>
       </c>
       <c r="H6" t="n">
-        <v>229797.5362812095</v>
+        <v>229089.1395369954</v>
       </c>
       <c r="I6" t="n">
-        <v>219093.8141462616</v>
+        <v>218470.684921978</v>
       </c>
       <c r="J6" t="n">
-        <v>235101.2636534988</v>
+        <v>234478.1344292149</v>
       </c>
       <c r="K6" t="n">
-        <v>235101.2636534988</v>
+        <v>234478.134429215</v>
       </c>
       <c r="L6" t="n">
-        <v>235101.2636534989</v>
+        <v>234478.1344292151</v>
       </c>
       <c r="M6" t="n">
-        <v>133463.7124443507</v>
+        <v>132755.3157001366</v>
       </c>
       <c r="N6" t="n">
-        <v>229797.5362812094</v>
+        <v>229089.1395369954</v>
       </c>
       <c r="O6" t="n">
-        <v>229797.5362812095</v>
+        <v>229089.1395369952</v>
       </c>
       <c r="P6" t="n">
-        <v>229797.5362812093</v>
+        <v>229089.1395369952</v>
       </c>
     </row>
   </sheetData>
@@ -26746,10 +26746,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
+        <v>531.159253416595</v>
+      </c>
+      <c r="F3" t="n">
         <v>531.1592534165951</v>
-      </c>
-      <c r="F3" t="n">
-        <v>531.159253416595</v>
       </c>
       <c r="G3" t="n">
         <v>531.159253416595</v>
@@ -26798,13 +26798,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>446.7623813221047</v>
+        <v>446.7623813221046</v>
       </c>
       <c r="F4" t="n">
-        <v>446.7623813221047</v>
+        <v>446.7623813221046</v>
       </c>
       <c r="G4" t="n">
-        <v>446.7623813221045</v>
+        <v>446.7623813221046</v>
       </c>
       <c r="H4" t="n">
         <v>446.7623813221046</v>
@@ -26819,16 +26819,16 @@
         <v>506.9586407647101</v>
       </c>
       <c r="L4" t="n">
-        <v>506.9586407647101</v>
+        <v>506.95864076471</v>
       </c>
       <c r="M4" t="n">
-        <v>446.7623813221045</v>
+        <v>446.7623813221046</v>
       </c>
       <c r="N4" t="n">
-        <v>446.7623813221045</v>
+        <v>446.7623813221046</v>
       </c>
       <c r="O4" t="n">
-        <v>446.7623813221045</v>
+        <v>446.7623813221046</v>
       </c>
       <c r="P4" t="n">
         <v>446.7623813221045</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>531.1592534165951</v>
+        <v>531.159253416595</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>446.7623813221047</v>
+        <v>446.7623813221046</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27032,7 +27032,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>60.19625944260542</v>
+        <v>60.19625944260537</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>386.5661218795</v>
+        <v>386.5661218794992</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>446.7623813221047</v>
+        <v>446.7623813221046</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -29748,28 +29748,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>-6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>-6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>-6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>-6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>-6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>-6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>-6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>-6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29799,25 +29799,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>-6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>-6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>-6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>-6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>-6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>-6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>-6.496390726949487e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -30222,28 +30222,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>-6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>-6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>-6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>-6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>-6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>-6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>-6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>-6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30273,25 +30273,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>-6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>-6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>-6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>-6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>-6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>-6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>-6.496390726949487e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -30443,7 +30443,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>-4.355829982419629e-12</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -30556,7 +30556,7 @@
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>-3.614114730677164e-12</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -30696,13 +30696,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>-6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>-6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -30711,13 +30711,13 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>-6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>-6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30762,10 +30762,10 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>-6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>-6.496390726949487e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -30832,7 +30832,7 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>-3.563209027026822e-12</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -31758,10 +31758,10 @@
         <v>21.86828021729729</v>
       </c>
       <c r="I11" t="n">
-        <v>82.32167685364135</v>
+        <v>82.32167685364134</v>
       </c>
       <c r="J11" t="n">
-        <v>181.2320710941377</v>
+        <v>181.2320710941376</v>
       </c>
       <c r="K11" t="n">
         <v>271.6198950021757</v>
@@ -31770,31 +31770,31 @@
         <v>336.9684980242787</v>
       </c>
       <c r="M11" t="n">
-        <v>374.9423809305998</v>
+        <v>374.9423809305997</v>
       </c>
       <c r="N11" t="n">
-        <v>381.0093406442477</v>
+        <v>381.0093406442476</v>
       </c>
       <c r="O11" t="n">
-        <v>359.7763162174687</v>
+        <v>359.7763162174686</v>
       </c>
       <c r="P11" t="n">
-        <v>307.0607621723544</v>
+        <v>307.0607621723543</v>
       </c>
       <c r="Q11" t="n">
-        <v>230.5898445322265</v>
+        <v>230.5898445322264</v>
       </c>
       <c r="R11" t="n">
         <v>134.1323917685636</v>
       </c>
       <c r="S11" t="n">
-        <v>48.65845824012327</v>
+        <v>48.65845824012326</v>
       </c>
       <c r="T11" t="n">
-        <v>9.347335203341284</v>
+        <v>9.347335203341283</v>
       </c>
       <c r="U11" t="n">
-        <v>0.17082508652594</v>
+        <v>0.1708250865259399</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31834,7 +31834,7 @@
         <v>1.142493488480978</v>
       </c>
       <c r="H12" t="n">
-        <v>11.03408184927682</v>
+        <v>11.03408184927681</v>
       </c>
       <c r="I12" t="n">
         <v>39.33585037094596</v>
@@ -31843,37 +31843,37 @@
         <v>107.9405799796875</v>
       </c>
       <c r="K12" t="n">
-        <v>184.4876437079131</v>
+        <v>184.487643707913</v>
       </c>
       <c r="L12" t="n">
-        <v>248.0664041546089</v>
+        <v>248.0664041546088</v>
       </c>
       <c r="M12" t="n">
-        <v>289.4817931120443</v>
+        <v>289.4817931120442</v>
       </c>
       <c r="N12" t="n">
-        <v>297.1435147957611</v>
+        <v>297.143514795761</v>
       </c>
       <c r="O12" t="n">
-        <v>271.828264340472</v>
+        <v>271.8282643404719</v>
       </c>
       <c r="P12" t="n">
-        <v>218.166146936337</v>
+        <v>218.1661469363369</v>
       </c>
       <c r="Q12" t="n">
         <v>145.8382916173263</v>
       </c>
       <c r="R12" t="n">
-        <v>70.93481501288041</v>
+        <v>70.93481501288039</v>
       </c>
       <c r="S12" t="n">
-        <v>21.22131545489886</v>
+        <v>21.22131545489885</v>
       </c>
       <c r="T12" t="n">
-        <v>4.605050508394818</v>
+        <v>4.605050508394817</v>
       </c>
       <c r="U12" t="n">
-        <v>0.07516404529480122</v>
+        <v>0.07516404529480121</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,16 +31910,16 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.957828161898778</v>
+        <v>0.9578281618987777</v>
       </c>
       <c r="H13" t="n">
-        <v>8.515963112154596</v>
+        <v>8.515963112154594</v>
       </c>
       <c r="I13" t="n">
         <v>28.80450508691962</v>
       </c>
       <c r="J13" t="n">
-        <v>67.7184510462436</v>
+        <v>67.71845104624359</v>
       </c>
       <c r="K13" t="n">
         <v>111.2822173551489</v>
@@ -31940,19 +31940,19 @@
         <v>115.8449624172849</v>
       </c>
       <c r="Q13" t="n">
-        <v>80.20504726590586</v>
+        <v>80.20504726590585</v>
       </c>
       <c r="R13" t="n">
-        <v>43.06743717046686</v>
+        <v>43.06743717046685</v>
       </c>
       <c r="S13" t="n">
         <v>16.69233260327233</v>
       </c>
       <c r="T13" t="n">
-        <v>4.092538509931141</v>
+        <v>4.09253850993114</v>
       </c>
       <c r="U13" t="n">
-        <v>0.05224517246720613</v>
+        <v>0.05224517246720612</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31995,10 +31995,10 @@
         <v>21.86828021729729</v>
       </c>
       <c r="I14" t="n">
-        <v>82.32167685364134</v>
+        <v>82.32167685364135</v>
       </c>
       <c r="J14" t="n">
-        <v>181.2320710941376</v>
+        <v>181.2320710941377</v>
       </c>
       <c r="K14" t="n">
         <v>271.6198950021757</v>
@@ -32007,31 +32007,31 @@
         <v>336.9684980242787</v>
       </c>
       <c r="M14" t="n">
-        <v>374.9423809305997</v>
+        <v>374.9423809305998</v>
       </c>
       <c r="N14" t="n">
-        <v>381.0093406442476</v>
+        <v>381.0093406442477</v>
       </c>
       <c r="O14" t="n">
-        <v>359.7763162174686</v>
+        <v>359.7763162174687</v>
       </c>
       <c r="P14" t="n">
-        <v>307.0607621723543</v>
+        <v>307.0607621723544</v>
       </c>
       <c r="Q14" t="n">
-        <v>230.5898445322264</v>
+        <v>230.5898445322265</v>
       </c>
       <c r="R14" t="n">
         <v>134.1323917685636</v>
       </c>
       <c r="S14" t="n">
-        <v>48.65845824012326</v>
+        <v>48.65845824012327</v>
       </c>
       <c r="T14" t="n">
-        <v>9.347335203341283</v>
+        <v>9.347335203341284</v>
       </c>
       <c r="U14" t="n">
-        <v>0.1708250865259399</v>
+        <v>0.17082508652594</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32071,7 +32071,7 @@
         <v>1.142493488480978</v>
       </c>
       <c r="H15" t="n">
-        <v>11.03408184927681</v>
+        <v>11.03408184927682</v>
       </c>
       <c r="I15" t="n">
         <v>39.33585037094596</v>
@@ -32080,37 +32080,37 @@
         <v>107.9405799796875</v>
       </c>
       <c r="K15" t="n">
-        <v>184.487643707913</v>
+        <v>184.4876437079131</v>
       </c>
       <c r="L15" t="n">
-        <v>248.0664041546088</v>
+        <v>248.0664041546089</v>
       </c>
       <c r="M15" t="n">
-        <v>289.4817931120442</v>
+        <v>289.4817931120443</v>
       </c>
       <c r="N15" t="n">
-        <v>297.143514795761</v>
+        <v>297.1435147957611</v>
       </c>
       <c r="O15" t="n">
-        <v>271.8282643404719</v>
+        <v>271.828264340472</v>
       </c>
       <c r="P15" t="n">
-        <v>218.1661469363369</v>
+        <v>218.166146936337</v>
       </c>
       <c r="Q15" t="n">
         <v>145.8382916173263</v>
       </c>
       <c r="R15" t="n">
-        <v>70.93481501288039</v>
+        <v>70.93481501288041</v>
       </c>
       <c r="S15" t="n">
-        <v>21.22131545489885</v>
+        <v>21.22131545489886</v>
       </c>
       <c r="T15" t="n">
-        <v>4.605050508394817</v>
+        <v>4.605050508394818</v>
       </c>
       <c r="U15" t="n">
-        <v>0.07516404529480121</v>
+        <v>0.07516404529480122</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,16 +32147,16 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.9578281618987777</v>
+        <v>0.957828161898778</v>
       </c>
       <c r="H16" t="n">
-        <v>8.515963112154594</v>
+        <v>8.515963112154596</v>
       </c>
       <c r="I16" t="n">
         <v>28.80450508691962</v>
       </c>
       <c r="J16" t="n">
-        <v>67.71845104624359</v>
+        <v>67.7184510462436</v>
       </c>
       <c r="K16" t="n">
         <v>111.2822173551489</v>
@@ -32177,19 +32177,19 @@
         <v>115.8449624172849</v>
       </c>
       <c r="Q16" t="n">
-        <v>80.20504726590585</v>
+        <v>80.20504726590586</v>
       </c>
       <c r="R16" t="n">
-        <v>43.06743717046685</v>
+        <v>43.06743717046686</v>
       </c>
       <c r="S16" t="n">
         <v>16.69233260327233</v>
       </c>
       <c r="T16" t="n">
-        <v>4.09253850993114</v>
+        <v>4.092538509931141</v>
       </c>
       <c r="U16" t="n">
-        <v>0.05224517246720612</v>
+        <v>0.05224517246720613</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -34137,7 +34137,7 @@
         <v>271.6198950021757</v>
       </c>
       <c r="L41" t="n">
-        <v>336.9684980242787</v>
+        <v>336.9684980242788</v>
       </c>
       <c r="M41" t="n">
         <v>374.9423809305997</v>
@@ -34392,7 +34392,7 @@
         <v>230.5898445322264</v>
       </c>
       <c r="R44" t="n">
-        <v>134.1323917685635</v>
+        <v>134.1323917685636</v>
       </c>
       <c r="S44" t="n">
         <v>48.65845824012326</v>
@@ -35412,19 +35412,19 @@
         <v>107.9084797608297</v>
       </c>
       <c r="K11" t="n">
-        <v>182.4835053289586</v>
+        <v>182.4835053289585</v>
       </c>
       <c r="L11" t="n">
         <v>241.4830999614339</v>
       </c>
       <c r="M11" t="n">
-        <v>281.6521564735544</v>
+        <v>281.6521564735543</v>
       </c>
       <c r="N11" t="n">
-        <v>288.0970498876284</v>
+        <v>288.0970498876283</v>
       </c>
       <c r="O11" t="n">
-        <v>266.5865405916856</v>
+        <v>266.5865405916855</v>
       </c>
       <c r="P11" t="n">
         <v>213.4113988914702</v>
@@ -35433,7 +35433,7 @@
         <v>140.5560401330744</v>
       </c>
       <c r="R11" t="n">
-        <v>46.82024895384008</v>
+        <v>46.82024895384005</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,31 +35485,31 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>18.79474490498374</v>
+        <v>18.79474490498373</v>
       </c>
       <c r="J12" t="n">
-        <v>56.57134117968751</v>
+        <v>302.7010421641655</v>
       </c>
       <c r="K12" t="n">
-        <v>128.6618609232977</v>
+        <v>128.6618609232976</v>
       </c>
       <c r="L12" t="n">
-        <v>191.9518803437599</v>
+        <v>191.9518803437598</v>
       </c>
       <c r="M12" t="n">
         <v>231.9175093736268</v>
       </c>
       <c r="N12" t="n">
-        <v>243.9501214020111</v>
+        <v>243.950121402011</v>
       </c>
       <c r="O12" t="n">
         <v>214.076785340472</v>
       </c>
       <c r="P12" t="n">
-        <v>446.7623813221047</v>
+        <v>163.9065119335332</v>
       </c>
       <c r="Q12" t="n">
-        <v>135.5189798133584</v>
+        <v>172.2451482174519</v>
       </c>
       <c r="R12" t="n">
         <v>100.7929153791732</v>
@@ -35570,25 +35570,25 @@
         <v>81.94324842524412</v>
       </c>
       <c r="K13" t="n">
-        <v>267.3956797008439</v>
+        <v>267.3956797008438</v>
       </c>
       <c r="L13" t="n">
         <v>404.9252486033274</v>
       </c>
       <c r="M13" t="n">
-        <v>442.3298337384635</v>
+        <v>93.87897564322563</v>
       </c>
       <c r="N13" t="n">
-        <v>414.1841082842118</v>
+        <v>94.86118584832725</v>
       </c>
       <c r="O13" t="n">
-        <v>79.30975884702372</v>
+        <v>397.5670915932262</v>
       </c>
       <c r="P13" t="n">
-        <v>60.06512077738009</v>
+        <v>323.5979323663882</v>
       </c>
       <c r="Q13" t="n">
-        <v>18.8455216059803</v>
+        <v>104.8291578018922</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35649,19 +35649,19 @@
         <v>107.9084797608297</v>
       </c>
       <c r="K14" t="n">
-        <v>182.4835053289585</v>
+        <v>182.4835053289586</v>
       </c>
       <c r="L14" t="n">
         <v>241.4830999614339</v>
       </c>
       <c r="M14" t="n">
-        <v>281.6521564735543</v>
+        <v>281.6521564735544</v>
       </c>
       <c r="N14" t="n">
-        <v>288.0970498876283</v>
+        <v>288.0970498876284</v>
       </c>
       <c r="O14" t="n">
-        <v>266.5865405916855</v>
+        <v>266.5865405916856</v>
       </c>
       <c r="P14" t="n">
         <v>213.4113988914702</v>
@@ -35670,7 +35670,7 @@
         <v>140.5560401330744</v>
       </c>
       <c r="R14" t="n">
-        <v>46.82024895384005</v>
+        <v>46.82024895384008</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,22 +35722,22 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>18.79474490498374</v>
       </c>
       <c r="J15" t="n">
-        <v>56.57134117968749</v>
+        <v>302.7010421641655</v>
       </c>
       <c r="K15" t="n">
-        <v>446.7623813221047</v>
+        <v>300.6196354999598</v>
       </c>
       <c r="L15" t="n">
-        <v>310.7335804110774</v>
+        <v>191.9518803437599</v>
       </c>
       <c r="M15" t="n">
         <v>231.9175093736268</v>
       </c>
       <c r="N15" t="n">
-        <v>243.950121402011</v>
+        <v>243.9501214020111</v>
       </c>
       <c r="O15" t="n">
         <v>214.076785340472</v>
@@ -35746,10 +35746,10 @@
         <v>163.9065119335332</v>
       </c>
       <c r="Q15" t="n">
-        <v>89.14567311248754</v>
+        <v>89.14567311248757</v>
       </c>
       <c r="R15" t="n">
-        <v>11.93461590747498</v>
+        <v>11.934615907475</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,13 +35804,13 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>16.28530536328817</v>
+        <v>81.94324842524412</v>
       </c>
       <c r="K16" t="n">
-        <v>59.03184779608206</v>
+        <v>59.03184779608208</v>
       </c>
       <c r="L16" t="n">
-        <v>344.6244299793382</v>
+        <v>87.77463119421319</v>
       </c>
       <c r="M16" t="n">
         <v>442.3298337384635</v>
@@ -35822,10 +35822,10 @@
         <v>397.5670915932262</v>
       </c>
       <c r="P16" t="n">
-        <v>60.06512077738008</v>
+        <v>123.7075217471779</v>
       </c>
       <c r="Q16" t="n">
-        <v>18.84552160598028</v>
+        <v>146.3949763593511</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35962,10 +35962,10 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>56.57134117968749</v>
+        <v>135.8368534361949</v>
       </c>
       <c r="K18" t="n">
-        <v>446.7623813221045</v>
+        <v>128.6618609232976</v>
       </c>
       <c r="L18" t="n">
         <v>191.9518803437598</v>
@@ -35980,10 +35980,10 @@
         <v>214.076785340472</v>
       </c>
       <c r="P18" t="n">
-        <v>282.6882120008503</v>
+        <v>163.9065119335332</v>
       </c>
       <c r="Q18" t="n">
-        <v>89.14567311248754</v>
+        <v>446.7623813221046</v>
       </c>
       <c r="R18" t="n">
         <v>11.93461590747498</v>
@@ -36050,19 +36050,19 @@
         <v>404.9252486033274</v>
       </c>
       <c r="M19" t="n">
-        <v>442.3298337384635</v>
+        <v>93.87897564322563</v>
       </c>
       <c r="N19" t="n">
-        <v>286.6346535308406</v>
+        <v>94.86118584832725</v>
       </c>
       <c r="O19" t="n">
-        <v>79.30975884702369</v>
+        <v>397.5670915932262</v>
       </c>
       <c r="P19" t="n">
-        <v>60.06512077738008</v>
+        <v>323.5979323663882</v>
       </c>
       <c r="Q19" t="n">
-        <v>146.3949763593511</v>
+        <v>104.8291578018922</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36196,13 +36196,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>18.79474490498373</v>
       </c>
       <c r="J21" t="n">
         <v>56.57134117968749</v>
       </c>
       <c r="K21" t="n">
-        <v>128.6618609232976</v>
+        <v>446.7623813221046</v>
       </c>
       <c r="L21" t="n">
         <v>191.9518803437598</v>
@@ -36211,16 +36211,16 @@
         <v>231.9175093736268</v>
       </c>
       <c r="N21" t="n">
-        <v>323.2156336585184</v>
+        <v>243.950121402011</v>
       </c>
       <c r="O21" t="n">
         <v>214.076785340472</v>
       </c>
       <c r="P21" t="n">
-        <v>163.9065119335332</v>
+        <v>263.893467095867</v>
       </c>
       <c r="Q21" t="n">
-        <v>446.7623813221046</v>
+        <v>89.14567311248754</v>
       </c>
       <c r="R21" t="n">
         <v>11.93461590747498</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.94324842524412</v>
+        <v>16.28530536328817</v>
       </c>
       <c r="K22" t="n">
-        <v>267.3956797008438</v>
+        <v>83.64907567832219</v>
       </c>
       <c r="L22" t="n">
         <v>404.9252486033274</v>
       </c>
       <c r="M22" t="n">
-        <v>370.5704898319691</v>
+        <v>93.87897564322563</v>
       </c>
       <c r="N22" t="n">
-        <v>94.86118584832725</v>
+        <v>430.2493691287167</v>
       </c>
       <c r="O22" t="n">
-        <v>79.30975884702369</v>
+        <v>397.5670915932262</v>
       </c>
       <c r="P22" t="n">
         <v>323.5979323663882</v>
       </c>
       <c r="Q22" t="n">
-        <v>146.3949763593511</v>
+        <v>18.84552160598028</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,7 +36357,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>217.9828938404985</v>
+        <v>107.9084797608297</v>
       </c>
       <c r="K23" t="n">
         <v>182.4835053289585</v>
@@ -36378,7 +36378,7 @@
         <v>213.4113988914702</v>
       </c>
       <c r="Q23" t="n">
-        <v>140.5560401330744</v>
+        <v>250.6304542127429</v>
       </c>
       <c r="R23" t="n">
         <v>175.0987005459017</v>
@@ -36436,10 +36436,10 @@
         <v>18.79474490498373</v>
       </c>
       <c r="J24" t="n">
-        <v>245.8566030994479</v>
+        <v>214.082517280483</v>
       </c>
       <c r="K24" t="n">
-        <v>506.95864076471</v>
+        <v>128.6618609232976</v>
       </c>
       <c r="L24" t="n">
         <v>191.9518803437598</v>
@@ -36457,7 +36457,7 @@
         <v>163.9065119335332</v>
       </c>
       <c r="Q24" t="n">
-        <v>89.14567311248754</v>
+        <v>499.216538772865</v>
       </c>
       <c r="R24" t="n">
         <v>100.7929153791732</v>
@@ -36521,16 +36521,16 @@
         <v>267.3956797008438</v>
       </c>
       <c r="L25" t="n">
-        <v>404.9252486033274</v>
+        <v>236.1305870881739</v>
       </c>
       <c r="M25" t="n">
-        <v>290.666022757497</v>
+        <v>442.3298337384635</v>
       </c>
       <c r="N25" t="n">
-        <v>94.86118584832725</v>
+        <v>430.2493691287167</v>
       </c>
       <c r="O25" t="n">
-        <v>397.5670915932262</v>
+        <v>79.30975884702369</v>
       </c>
       <c r="P25" t="n">
         <v>323.5979323663882</v>
@@ -36670,16 +36670,16 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>18.79474490498373</v>
       </c>
       <c r="J27" t="n">
-        <v>56.57134117968749</v>
+        <v>214.0825172804834</v>
       </c>
       <c r="K27" t="n">
         <v>128.6618609232976</v>
       </c>
       <c r="L27" t="n">
-        <v>506.9586407647101</v>
+        <v>191.9518803437598</v>
       </c>
       <c r="M27" t="n">
         <v>231.9175093736268</v>
@@ -36688,16 +36688,16 @@
         <v>243.950121402011</v>
       </c>
       <c r="O27" t="n">
-        <v>231.2529822261998</v>
+        <v>214.076785340472</v>
       </c>
       <c r="P27" t="n">
-        <v>506.9586407647101</v>
+        <v>163.9065119335332</v>
       </c>
       <c r="Q27" t="n">
-        <v>89.14567311248754</v>
+        <v>499.216538772865</v>
       </c>
       <c r="R27" t="n">
-        <v>11.93461590747498</v>
+        <v>100.7929153791732</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36755,10 +36755,10 @@
         <v>81.94324842524412</v>
       </c>
       <c r="K28" t="n">
-        <v>171.4259517818675</v>
+        <v>267.3956797008438</v>
       </c>
       <c r="L28" t="n">
-        <v>404.9252486033274</v>
+        <v>87.77463119421316</v>
       </c>
       <c r="M28" t="n">
         <v>442.3298337384635</v>
@@ -36770,10 +36770,10 @@
         <v>397.5670915932262</v>
       </c>
       <c r="P28" t="n">
-        <v>60.06512077738008</v>
+        <v>153.6965555141467</v>
       </c>
       <c r="Q28" t="n">
-        <v>18.84552160598028</v>
+        <v>146.3949763593511</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36831,7 +36831,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>346.2613454325606</v>
+        <v>217.9828938404987</v>
       </c>
       <c r="K29" t="n">
         <v>182.4835053289585</v>
@@ -36855,7 +36855,7 @@
         <v>140.5560401330744</v>
       </c>
       <c r="R29" t="n">
-        <v>46.82024895384005</v>
+        <v>175.0987005459017</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,13 +36907,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>4.056450872204446</v>
+        <v>18.79474490498373</v>
       </c>
       <c r="J30" t="n">
-        <v>56.57134117968749</v>
+        <v>214.0825172804834</v>
       </c>
       <c r="K30" t="n">
-        <v>506.9586407647101</v>
+        <v>128.6618609232976</v>
       </c>
       <c r="L30" t="n">
         <v>191.9518803437598</v>
@@ -36925,16 +36925,16 @@
         <v>243.950121402011</v>
       </c>
       <c r="O30" t="n">
-        <v>506.9586407647101</v>
+        <v>214.076785340472</v>
       </c>
       <c r="P30" t="n">
         <v>163.9065119335332</v>
       </c>
       <c r="Q30" t="n">
-        <v>89.14567311248754</v>
+        <v>499.216538772865</v>
       </c>
       <c r="R30" t="n">
-        <v>11.93461590747498</v>
+        <v>100.7929153791732</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36992,13 +36992,13 @@
         <v>81.94324842524412</v>
       </c>
       <c r="K31" t="n">
-        <v>267.3956797008438</v>
+        <v>59.03184779608206</v>
       </c>
       <c r="L31" t="n">
-        <v>87.77463119421316</v>
+        <v>253.7865410001047</v>
       </c>
       <c r="M31" t="n">
-        <v>272.4284568862224</v>
+        <v>442.3298337384635</v>
       </c>
       <c r="N31" t="n">
         <v>430.2493691287167</v>
@@ -37010,7 +37010,7 @@
         <v>323.5979323663882</v>
       </c>
       <c r="Q31" t="n">
-        <v>146.3949763593511</v>
+        <v>18.84552160598028</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37071,7 +37071,7 @@
         <v>107.9084797608297</v>
       </c>
       <c r="K32" t="n">
-        <v>292.5579194086276</v>
+        <v>182.4835053289585</v>
       </c>
       <c r="L32" t="n">
         <v>241.4830999614339</v>
@@ -37086,13 +37086,13 @@
         <v>266.5865405916855</v>
       </c>
       <c r="P32" t="n">
-        <v>213.4113988914702</v>
+        <v>451.7642645632008</v>
       </c>
       <c r="Q32" t="n">
         <v>140.5560401330744</v>
       </c>
       <c r="R32" t="n">
-        <v>175.0987005459017</v>
+        <v>46.82024895384005</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,13 +37147,13 @@
         <v>18.79474490498373</v>
       </c>
       <c r="J33" t="n">
-        <v>105.1230665673704</v>
+        <v>302.7010421641655</v>
       </c>
       <c r="K33" t="n">
         <v>128.6618609232976</v>
       </c>
       <c r="L33" t="n">
-        <v>506.9586407647101</v>
+        <v>191.9518803437598</v>
       </c>
       <c r="M33" t="n">
         <v>231.9175093736268</v>
@@ -37162,13 +37162,13 @@
         <v>243.950121402011</v>
       </c>
       <c r="O33" t="n">
-        <v>506.9586407647101</v>
+        <v>214.3165599284875</v>
       </c>
       <c r="P33" t="n">
         <v>163.9065119335332</v>
       </c>
       <c r="Q33" t="n">
-        <v>89.14567311248754</v>
+        <v>499.216538772865</v>
       </c>
       <c r="R33" t="n">
         <v>11.93461590747498</v>
@@ -37232,22 +37232,22 @@
         <v>267.3956797008438</v>
       </c>
       <c r="L34" t="n">
-        <v>380.8108923757324</v>
+        <v>181.4060659309797</v>
       </c>
       <c r="M34" t="n">
         <v>442.3298337384635</v>
       </c>
       <c r="N34" t="n">
-        <v>94.86118584832725</v>
+        <v>430.2493691287167</v>
       </c>
       <c r="O34" t="n">
         <v>397.5670915932262</v>
       </c>
       <c r="P34" t="n">
-        <v>323.5979323663882</v>
+        <v>60.06512077738008</v>
       </c>
       <c r="Q34" t="n">
-        <v>18.84552160598028</v>
+        <v>146.3949763593511</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37329,7 +37329,7 @@
         <v>140.5560401330744</v>
       </c>
       <c r="R35" t="n">
-        <v>46.82024895383996</v>
+        <v>46.82024895384005</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,7 +37384,7 @@
         <v>18.79474490498373</v>
       </c>
       <c r="J36" t="n">
-        <v>56.57134117968749</v>
+        <v>302.7010421641655</v>
       </c>
       <c r="K36" t="n">
         <v>128.6618609232976</v>
@@ -37405,10 +37405,10 @@
         <v>163.9065119335332</v>
       </c>
       <c r="Q36" t="n">
-        <v>418.3748492019297</v>
+        <v>261.1034476891502</v>
       </c>
       <c r="R36" t="n">
-        <v>100.7929153791732</v>
+        <v>11.93461590747498</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37466,25 +37466,25 @@
         <v>16.28530536328817</v>
       </c>
       <c r="K37" t="n">
-        <v>188.3321918278357</v>
+        <v>267.3956797008438</v>
       </c>
       <c r="L37" t="n">
-        <v>87.77463119421316</v>
+        <v>404.9252486033274</v>
       </c>
       <c r="M37" t="n">
         <v>442.3298337384635</v>
       </c>
       <c r="N37" t="n">
-        <v>430.2493691287167</v>
+        <v>94.86118584832725</v>
       </c>
       <c r="O37" t="n">
-        <v>397.5670915932262</v>
+        <v>200.7578127558562</v>
       </c>
       <c r="P37" t="n">
-        <v>60.06512077738008</v>
+        <v>323.5979323663882</v>
       </c>
       <c r="Q37" t="n">
-        <v>146.3949763593511</v>
+        <v>18.84552160598028</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37566,7 +37566,7 @@
         <v>140.5560401330744</v>
       </c>
       <c r="R38" t="n">
-        <v>46.82024895383996</v>
+        <v>46.82024895384005</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,13 +37621,13 @@
         <v>18.79474490498373</v>
       </c>
       <c r="J39" t="n">
-        <v>56.57134117968749</v>
+        <v>302.7010421641655</v>
       </c>
       <c r="K39" t="n">
-        <v>446.7623813221045</v>
+        <v>128.6618609232976</v>
       </c>
       <c r="L39" t="n">
-        <v>291.9388355060933</v>
+        <v>191.9518803437598</v>
       </c>
       <c r="M39" t="n">
         <v>231.9175093736268</v>
@@ -37642,10 +37642,10 @@
         <v>163.9065119335332</v>
       </c>
       <c r="Q39" t="n">
-        <v>89.14567311248754</v>
+        <v>172.2451482174519</v>
       </c>
       <c r="R39" t="n">
-        <v>11.93461590747498</v>
+        <v>100.7929153791732</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37706,7 +37706,7 @@
         <v>59.03184779608206</v>
       </c>
       <c r="L40" t="n">
-        <v>217.0749752259667</v>
+        <v>344.6244299793377</v>
       </c>
       <c r="M40" t="n">
         <v>442.3298337384635</v>
@@ -37721,7 +37721,7 @@
         <v>60.06512077738008</v>
       </c>
       <c r="Q40" t="n">
-        <v>146.3949763593511</v>
+        <v>18.84552160598028</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37785,7 +37785,7 @@
         <v>182.4835053289585</v>
       </c>
       <c r="L41" t="n">
-        <v>241.4830999614339</v>
+        <v>241.483099961434</v>
       </c>
       <c r="M41" t="n">
         <v>281.6521564735543</v>
@@ -37855,13 +37855,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>18.79474490498373</v>
       </c>
       <c r="J42" t="n">
         <v>302.7010421641655</v>
       </c>
       <c r="K42" t="n">
-        <v>230.5560809332454</v>
+        <v>128.6618609232976</v>
       </c>
       <c r="L42" t="n">
         <v>191.9518803437598</v>
@@ -37879,7 +37879,7 @@
         <v>163.9065119335332</v>
       </c>
       <c r="Q42" t="n">
-        <v>89.14567311248754</v>
+        <v>172.2451482174519</v>
       </c>
       <c r="R42" t="n">
         <v>100.7929153791732</v>
@@ -37937,25 +37937,25 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.94324842524412</v>
+        <v>16.28530536328817</v>
       </c>
       <c r="K43" t="n">
-        <v>267.3956797008438</v>
+        <v>188.3321918278357</v>
       </c>
       <c r="L43" t="n">
-        <v>333.1659046968327</v>
+        <v>87.77463119421316</v>
       </c>
       <c r="M43" t="n">
         <v>442.3298337384635</v>
       </c>
       <c r="N43" t="n">
-        <v>94.86118584832725</v>
+        <v>430.2493691287167</v>
       </c>
       <c r="O43" t="n">
-        <v>79.30975884702369</v>
+        <v>397.5670915932262</v>
       </c>
       <c r="P43" t="n">
-        <v>323.5979323663882</v>
+        <v>60.06512077738008</v>
       </c>
       <c r="Q43" t="n">
         <v>146.3949763593511</v>
@@ -38040,7 +38040,7 @@
         <v>140.5560401330744</v>
       </c>
       <c r="R44" t="n">
-        <v>46.82024895383996</v>
+        <v>46.82024895384005</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,13 +38092,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>18.79474490498373</v>
       </c>
       <c r="J45" t="n">
         <v>302.7010421641655</v>
       </c>
       <c r="K45" t="n">
-        <v>128.6618609232976</v>
+        <v>211.7613360282617</v>
       </c>
       <c r="L45" t="n">
         <v>191.9518803437598</v>
@@ -38116,10 +38116,10 @@
         <v>163.9065119335332</v>
       </c>
       <c r="Q45" t="n">
-        <v>279.8981925941338</v>
+        <v>89.14567311248754</v>
       </c>
       <c r="R45" t="n">
-        <v>11.93461590747498</v>
+        <v>100.7929153791732</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,25 +38174,25 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>16.28530536328817</v>
+        <v>81.94324842524412</v>
       </c>
       <c r="K46" t="n">
-        <v>267.3956797008438</v>
+        <v>153.9744894520033</v>
       </c>
       <c r="L46" t="n">
         <v>404.9252486033274</v>
       </c>
       <c r="M46" t="n">
-        <v>117.9711001477224</v>
+        <v>93.87897564322563</v>
       </c>
       <c r="N46" t="n">
-        <v>94.86118584832725</v>
+        <v>430.2493691287167</v>
       </c>
       <c r="O46" t="n">
         <v>397.5670915932262</v>
       </c>
       <c r="P46" t="n">
-        <v>323.5979323663882</v>
+        <v>60.06512077738008</v>
       </c>
       <c r="Q46" t="n">
         <v>146.3949763593511</v>
